--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2936206.639756241</v>
+        <v>2927431.594037734</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2074206.924235501</v>
+        <v>2074206.924235502</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2356971.406258097</v>
+        <v>2356971.406258096</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7815593.796483426</v>
+        <v>7815593.796483427</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.0588230016234</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.5978731091503</v>
+        <v>244.5978731091504</v>
       </c>
       <c r="D11" t="n">
-        <v>234.0080229588257</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.2553514104046</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>286.2010270798543</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>293.8792862385194</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.29014271557926</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>203.2117633802137</v>
+        <v>60.10742270050295</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.0560820166118</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.85816498801013</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>52.03348032645853</v>
+        <v>52.03348032645854</v>
       </c>
       <c r="D12" t="n">
-        <v>26.77004690278154</v>
+        <v>26.77004690278156</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>36.97006179354375</v>
       </c>
       <c r="F12" t="n">
-        <v>24.39419373152667</v>
+        <v>24.39419373152668</v>
       </c>
       <c r="G12" t="n">
-        <v>62.52398705379483</v>
+        <v>16.26805174903243</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.8759252435470246</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>75.29500860064205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.57002965215831</v>
+        <v>43.57002965215833</v>
       </c>
       <c r="T12" t="n">
-        <v>198.5506472677031</v>
+        <v>77.87562860584595</v>
       </c>
       <c r="U12" t="n">
         <v>105.2400182380439</v>
       </c>
       <c r="V12" t="n">
-        <v>112.1255684875681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>131.0199644990624</v>
       </c>
       <c r="X12" t="n">
-        <v>85.09796654162027</v>
+        <v>85.09796654162028</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.00767711544715</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.15696152008009</v>
+        <v>59.1569615200801</v>
       </c>
       <c r="C13" t="n">
-        <v>46.57180243677062</v>
+        <v>46.57180243677064</v>
       </c>
       <c r="D13" t="n">
-        <v>27.94045435635515</v>
+        <v>27.94045435635516</v>
       </c>
       <c r="E13" t="n">
-        <v>25.75894398471196</v>
+        <v>25.75894398471198</v>
       </c>
       <c r="F13" t="n">
-        <v>24.74602936107404</v>
+        <v>24.74602936107405</v>
       </c>
       <c r="G13" t="n">
-        <v>46.98023959133386</v>
+        <v>46.98023959133388</v>
       </c>
       <c r="H13" t="n">
-        <v>38.56728801874783</v>
+        <v>38.56728801874785</v>
       </c>
       <c r="I13" t="n">
-        <v>24.67940702698734</v>
+        <v>24.67940702698735</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.5231310184579</v>
+        <v>41.52313101845791</v>
       </c>
       <c r="S13" t="n">
-        <v>97.49087611331362</v>
+        <v>97.49087611331367</v>
       </c>
       <c r="T13" t="n">
         <v>105.8361260439169</v>
       </c>
       <c r="U13" t="n">
-        <v>165.6256986343462</v>
+        <v>165.6256986343463</v>
       </c>
       <c r="V13" t="n">
         <v>131.4626246619708</v>
@@ -1591,10 +1591,10 @@
         <v>165.8479796747338</v>
       </c>
       <c r="X13" t="n">
-        <v>105.0346367271799</v>
+        <v>105.03463672718</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.90963469023758</v>
+        <v>97.9096346902376</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.0588230016234</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>167.1986574373816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>261.2553514104046</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>286.2010270798543</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>293.8792862385194</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.29014271557926</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>85.42878660758284</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>207.0772398082777</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>249.0560820166118</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>265.5629199941964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45.85816498801013</v>
+        <v>45.85816498801015</v>
       </c>
       <c r="C15" t="n">
-        <v>52.03348032645853</v>
+        <v>52.03348032645854</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>26.77004690278156</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>36.97006179354375</v>
       </c>
       <c r="F15" t="n">
-        <v>25.27011897507406</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>16.26805174903241</v>
+        <v>16.26805174903243</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.57002965215831</v>
+        <v>43.57002965215833</v>
       </c>
       <c r="T15" t="n">
-        <v>77.87562860584593</v>
+        <v>78.75155384939322</v>
       </c>
       <c r="U15" t="n">
-        <v>105.2400182380439</v>
+        <v>225.9150368999011</v>
       </c>
       <c r="V15" t="n">
-        <v>112.1255684875681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>131.0199644990624</v>
       </c>
       <c r="X15" t="n">
-        <v>85.09796654162027</v>
+        <v>85.09796654162028</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>85.00767711544717</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.15696152008009</v>
+        <v>59.1569615200801</v>
       </c>
       <c r="C16" t="n">
-        <v>46.57180243677062</v>
+        <v>46.57180243677064</v>
       </c>
       <c r="D16" t="n">
-        <v>27.94045435635515</v>
+        <v>27.94045435635516</v>
       </c>
       <c r="E16" t="n">
-        <v>25.75894398471196</v>
+        <v>25.75894398471198</v>
       </c>
       <c r="F16" t="n">
-        <v>24.74602936107404</v>
+        <v>24.74602936107405</v>
       </c>
       <c r="G16" t="n">
-        <v>46.98023959133386</v>
+        <v>46.98023959133388</v>
       </c>
       <c r="H16" t="n">
-        <v>38.56728801874783</v>
+        <v>38.56728801874785</v>
       </c>
       <c r="I16" t="n">
-        <v>24.67940702698734</v>
+        <v>24.67940702698736</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.52313101845774</v>
+        <v>41.52313101845791</v>
       </c>
       <c r="S16" t="n">
-        <v>97.49087611331362</v>
+        <v>97.49087611331363</v>
       </c>
       <c r="T16" t="n">
         <v>105.8361260439169</v>
@@ -1828,10 +1828,10 @@
         <v>165.8479796747338</v>
       </c>
       <c r="X16" t="n">
-        <v>105.0346367271799</v>
+        <v>105.03463672718</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.90963469023758</v>
+        <v>97.9096346902376</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208.0833516378752</v>
+        <v>208.0833516378751</v>
       </c>
       <c r="C17" t="n">
-        <v>190.6224017454022</v>
+        <v>190.6224017454021</v>
       </c>
       <c r="D17" t="n">
-        <v>180.0325515950776</v>
+        <v>41.44025079702782</v>
       </c>
       <c r="E17" t="n">
-        <v>207.2798800466564</v>
+        <v>207.2798800466563</v>
       </c>
       <c r="F17" t="n">
         <v>232.225555716106</v>
       </c>
       <c r="G17" t="n">
-        <v>94.42428688327219</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>157.1594265742665</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>17.314671351831</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>45.16909576742066</v>
       </c>
       <c r="U17" t="n">
-        <v>76.63528827305042</v>
+        <v>76.63528827305036</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>153.1017684445295</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>174.5904786918076</v>
       </c>
       <c r="X17" t="n">
         <v>195.0806106528636</v>
       </c>
       <c r="Y17" t="n">
-        <v>211.5874486304482</v>
+        <v>211.5874486304481</v>
       </c>
     </row>
     <row r="18">
@@ -1926,10 +1926,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>75.60932142281884</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.29500860064206</v>
       </c>
       <c r="S18" t="n">
-        <v>164.2450483140155</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>52.16846118897318</v>
+        <v>198.5506472677031</v>
       </c>
       <c r="U18" t="n">
         <v>225.9150368999011</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>58.15009712381982</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>139.4325022239475</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.181490156331904</v>
+        <v>5.181490156331847</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.51540474956543</v>
+        <v>43.51540474956538</v>
       </c>
       <c r="T19" t="n">
-        <v>51.86065468016871</v>
+        <v>51.86065468016865</v>
       </c>
       <c r="U19" t="n">
-        <v>111.6502272705982</v>
+        <v>111.6502272705981</v>
       </c>
       <c r="V19" t="n">
-        <v>77.48715329822261</v>
+        <v>77.48715329822255</v>
       </c>
       <c r="W19" t="n">
         <v>111.8725083109856</v>
       </c>
       <c r="X19" t="n">
-        <v>51.05916536343176</v>
+        <v>51.0591653634317</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.9341633264894</v>
+        <v>43.93416332648934</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>208.0833516378752</v>
+        <v>161.3212049750217</v>
       </c>
       <c r="C20" t="n">
-        <v>190.6224017454022</v>
+        <v>190.6224017454021</v>
       </c>
       <c r="D20" t="n">
-        <v>180.0325515950776</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>207.2798800466564</v>
+        <v>207.2798800466563</v>
       </c>
       <c r="F20" t="n">
-        <v>232.225555716106</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>239.9038148747712</v>
+        <v>239.9038148747711</v>
       </c>
       <c r="H20" t="n">
-        <v>25.83141973656644</v>
+        <v>157.1594265742664</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.31467135183106</v>
+        <v>17.314671351831</v>
       </c>
       <c r="T20" t="n">
-        <v>45.16909576742071</v>
+        <v>45.16909576742066</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>153.1017684445295</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>174.5904786918076</v>
       </c>
       <c r="X20" t="n">
         <v>195.0806106528636</v>
       </c>
       <c r="Y20" t="n">
-        <v>211.5874486304482</v>
+        <v>211.5874486304481</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>127.7347152982809</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.9430704108896</v>
       </c>
       <c r="H21" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>75.60932142281884</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.29500860064206</v>
       </c>
       <c r="S21" t="n">
-        <v>164.2450483140155</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>198.5506472677031</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9150368999011</v>
+        <v>51.26454687429562</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>58.15009712381982</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>77.04449313531416</v>
       </c>
       <c r="X21" t="n">
-        <v>31.12249517787208</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.5830280693098</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.181490156331904</v>
+        <v>5.181490156331847</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.51540474956543</v>
+        <v>43.51540474956538</v>
       </c>
       <c r="T22" t="n">
-        <v>51.86065468016871</v>
+        <v>51.86065468016865</v>
       </c>
       <c r="U22" t="n">
-        <v>111.6502272705982</v>
+        <v>111.6502272705981</v>
       </c>
       <c r="V22" t="n">
-        <v>77.48715329822261</v>
+        <v>77.48715329822255</v>
       </c>
       <c r="W22" t="n">
         <v>111.8725083109856</v>
       </c>
       <c r="X22" t="n">
-        <v>51.05916536343176</v>
+        <v>51.0591653634317</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.9341633264894</v>
+        <v>43.93416332648934</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>208.0833516378752</v>
+        <v>208.0833516378751</v>
       </c>
       <c r="C23" t="n">
-        <v>190.6224017454022</v>
+        <v>190.6224017454021</v>
       </c>
       <c r="D23" t="n">
-        <v>180.0325515950776</v>
+        <v>180.0325515950775</v>
       </c>
       <c r="E23" t="n">
-        <v>207.2798800466564</v>
+        <v>207.2798800466563</v>
       </c>
       <c r="F23" t="n">
         <v>232.225555716106</v>
       </c>
       <c r="G23" t="n">
-        <v>239.9038148747712</v>
+        <v>239.9038148747711</v>
       </c>
       <c r="H23" t="n">
-        <v>157.1594265742665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.971451164324161</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.31467135183105</v>
+        <v>17.314671351831</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>45.16909576742066</v>
       </c>
       <c r="U23" t="n">
-        <v>76.63528827305042</v>
+        <v>76.63528827305036</v>
       </c>
       <c r="V23" t="n">
-        <v>13.16234996657341</v>
+        <v>153.1017684445295</v>
       </c>
       <c r="W23" t="n">
         <v>174.5904786918076</v>
@@ -2384,7 +2384,7 @@
         <v>195.0806106528636</v>
       </c>
       <c r="Y23" t="n">
-        <v>211.5874486304482</v>
+        <v>190.6098121236625</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9430704108896</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>108.3679716548698</v>
       </c>
       <c r="I24" t="n">
-        <v>75.60932142281882</v>
+        <v>75.60932142281884</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.61736268493824</v>
+        <v>75.29500860064206</v>
       </c>
       <c r="S24" t="n">
         <v>164.2450483140155</v>
       </c>
       <c r="T24" t="n">
-        <v>198.5506472677031</v>
+        <v>23.90015724209769</v>
       </c>
       <c r="U24" t="n">
-        <v>51.26454687429568</v>
+        <v>225.9150368999011</v>
       </c>
       <c r="V24" t="n">
-        <v>58.15009712381988</v>
+        <v>58.15009712381982</v>
       </c>
       <c r="W24" t="n">
-        <v>77.04449313531421</v>
+        <v>178.3099176305003</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.181490156331904</v>
+        <v>5.181490156331847</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.51540474956543</v>
+        <v>43.51540474956538</v>
       </c>
       <c r="T25" t="n">
-        <v>51.86065468016871</v>
+        <v>51.86065468016865</v>
       </c>
       <c r="U25" t="n">
-        <v>111.6502272705982</v>
+        <v>111.6502272705981</v>
       </c>
       <c r="V25" t="n">
-        <v>77.48715329822261</v>
+        <v>77.48715329822255</v>
       </c>
       <c r="W25" t="n">
         <v>111.8725083109856</v>
       </c>
       <c r="X25" t="n">
-        <v>51.05916536343176</v>
+        <v>51.0591653634317</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.9341633264894</v>
+        <v>43.93416332648934</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2558,22 @@
         <v>244.5978731091503</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>32.25382279189147</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>261.2553514104046</v>
       </c>
       <c r="F26" t="n">
-        <v>151.8932457015835</v>
+        <v>286.2010270798542</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>293.8792862385193</v>
       </c>
       <c r="H26" t="n">
         <v>211.1348979380146</v>
       </c>
       <c r="I26" t="n">
-        <v>60.94692252807235</v>
+        <v>60.94692252807234</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>99.1445671311689</v>
+        <v>99.14456713116887</v>
       </c>
       <c r="U26" t="n">
         <v>130.6107596367986</v>
       </c>
       <c r="V26" t="n">
-        <v>207.0772398082777</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>228.5659500555558</v>
       </c>
       <c r="X26" t="n">
-        <v>249.0560820166118</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>265.5629199941964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>52.03348032645853</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>36.97006179354374</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>143.4351796489347</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9430704108896</v>
+        <v>16.26805174903238</v>
       </c>
       <c r="H27" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>75.60932142281882</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>61.66824167138218</v>
       </c>
       <c r="S27" t="n">
-        <v>164.2450483140155</v>
+        <v>43.57002965215829</v>
       </c>
       <c r="T27" t="n">
-        <v>77.87562860584593</v>
+        <v>198.5506472677031</v>
       </c>
       <c r="U27" t="n">
         <v>225.9150368999011</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>112.125568487568</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>85.09796654162027</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.15696152008009</v>
+        <v>59.15696152008006</v>
       </c>
       <c r="C28" t="n">
-        <v>46.57180243677062</v>
+        <v>46.5718024367706</v>
       </c>
       <c r="D28" t="n">
-        <v>27.94045435635515</v>
+        <v>27.94045435635512</v>
       </c>
       <c r="E28" t="n">
-        <v>25.75894398471196</v>
+        <v>25.75894398471193</v>
       </c>
       <c r="F28" t="n">
-        <v>24.74602936107404</v>
+        <v>24.74602936107401</v>
       </c>
       <c r="G28" t="n">
-        <v>46.98023959133387</v>
+        <v>46.98023959133384</v>
       </c>
       <c r="H28" t="n">
-        <v>38.56728801874785</v>
+        <v>38.56728801874782</v>
       </c>
       <c r="I28" t="n">
-        <v>24.67940702698733</v>
+        <v>24.67940702698731</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.52313101845774</v>
+        <v>41.52313101845787</v>
       </c>
       <c r="S28" t="n">
-        <v>97.49087611331363</v>
+        <v>97.49087611331346</v>
       </c>
       <c r="T28" t="n">
         <v>105.8361260439169</v>
       </c>
       <c r="U28" t="n">
-        <v>165.6256986343463</v>
+        <v>165.6256986343467</v>
       </c>
       <c r="V28" t="n">
         <v>131.4626246619708</v>
@@ -2779,7 +2779,7 @@
         <v>105.0346367271799</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.90963469023758</v>
+        <v>97.90963469023755</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2792,10 @@
         <v>235.2582495561871</v>
       </c>
       <c r="C29" t="n">
-        <v>217.7972996637141</v>
+        <v>217.797299663714</v>
       </c>
       <c r="D29" t="n">
-        <v>58.21024462033018</v>
+        <v>207.2074495133894</v>
       </c>
       <c r="E29" t="n">
         <v>234.4547779649683</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>267.0787127930831</v>
+        <v>152.2278569826601</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.14634908263609</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.48956927014298</v>
+        <v>44.48956927014292</v>
       </c>
       <c r="T29" t="n">
-        <v>72.34399368573264</v>
+        <v>72.34399368573258</v>
       </c>
       <c r="U29" t="n">
         <v>103.8101861913623</v>
@@ -2855,7 +2855,7 @@
         <v>201.7653766101195</v>
       </c>
       <c r="X29" t="n">
-        <v>222.2555085711756</v>
+        <v>222.2555085711755</v>
       </c>
       <c r="Y29" t="n">
         <v>238.7623465487601</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.76945620672205</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T30" t="n">
-        <v>182.6124954716965</v>
+        <v>51.07505516040962</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9150368999011</v>
+        <v>209.9768851038949</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.35638807464383</v>
+        <v>32.35638807464377</v>
       </c>
       <c r="C31" t="n">
-        <v>19.77122899133437</v>
+        <v>19.77122899133431</v>
       </c>
       <c r="D31" t="n">
-        <v>1.13988091091889</v>
+        <v>1.139880910918833</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.17966614589761</v>
+        <v>20.17966614589755</v>
       </c>
       <c r="H31" t="n">
-        <v>11.76671457331158</v>
+        <v>11.76671457331152</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.72255757302163</v>
+        <v>14.72255757302158</v>
       </c>
       <c r="S31" t="n">
-        <v>70.69030266787736</v>
+        <v>70.6903026678773</v>
       </c>
       <c r="T31" t="n">
-        <v>79.03555259848063</v>
+        <v>79.03555259848058</v>
       </c>
       <c r="U31" t="n">
         <v>138.8251251889101</v>
@@ -3013,10 +3013,10 @@
         <v>139.0474062292975</v>
       </c>
       <c r="X31" t="n">
-        <v>78.23406328174369</v>
+        <v>78.23406328174363</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.10906124480132</v>
+        <v>71.10906124480127</v>
       </c>
     </row>
     <row r="32">
@@ -3111,10 +3111,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.3679716548698</v>
       </c>
       <c r="I33" t="n">
-        <v>75.60932142281882</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>164.2450483140155</v>
       </c>
       <c r="T33" t="n">
-        <v>186.9468661897284</v>
+        <v>143.9882010669153</v>
       </c>
       <c r="U33" t="n">
         <v>225.9150368999011</v>
@@ -3275,10 +3275,10 @@
         <v>194.5558041122955</v>
       </c>
       <c r="F35" t="n">
-        <v>93.7533349735908</v>
+        <v>219.5014797817452</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>132.4744901210418</v>
       </c>
       <c r="H35" t="n">
         <v>144.4353506399056</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>32.44501983305986</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>63.91121233868957</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>140.3776925101687</v>
       </c>
       <c r="W35" t="n">
-        <v>161.8664027574468</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>182.3565347185028</v>
@@ -3351,19 +3351,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.9430704108896</v>
       </c>
       <c r="H36" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>75.60932142281882</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.29500860064205</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>164.2450483140155</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.5506472677031</v>
@@ -3411,7 +3411,7 @@
         <v>18.39841924351123</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.81563785614174</v>
+        <v>141.5954065299437</v>
       </c>
     </row>
     <row r="37">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>195.3592757035143</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>177.8983258110413</v>
+        <v>84.24093010468046</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>167.3084756607167</v>
       </c>
       <c r="E38" t="n">
         <v>194.5558041122955</v>
@@ -3515,7 +3515,7 @@
         <v>219.5014797817452</v>
       </c>
       <c r="G38" t="n">
-        <v>36.96973543509209</v>
+        <v>227.1797389404103</v>
       </c>
       <c r="H38" t="n">
         <v>144.4353506399056</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.590595417470198</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>32.44501983305986</v>
       </c>
       <c r="U38" t="n">
-        <v>63.91121233868957</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>140.3776925101687</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9430704108896</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.3679716548698</v>
       </c>
       <c r="I39" t="n">
         <v>75.60932142281882</v>
@@ -3630,13 +3630,13 @@
         <v>75.29500860064205</v>
       </c>
       <c r="S39" t="n">
-        <v>164.2450483140155</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>11.17608130773689</v>
+        <v>72.68002964280555</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9150368999011</v>
+        <v>38.54047093993482</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>102.0960730634425</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>18.30812981733811</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>234.0080229588257</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>261.2553514104046</v>
       </c>
       <c r="F41" t="n">
         <v>286.2010270798542</v>
@@ -3755,7 +3755,7 @@
         <v>293.8792862385193</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>211.1348979380146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.29014271557924</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>70.69727285082868</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>152.6612711934267</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>249.0560820166118</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>24.39419373152667</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9430704108896</v>
+        <v>16.26805174903241</v>
       </c>
       <c r="H42" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.8759252435487656</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>75.29500860064205</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>102.1330119639096</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T42" t="n">
         <v>77.87562860584593</v>
@@ -3876,10 +3876,10 @@
         <v>105.2400182380439</v>
       </c>
       <c r="V42" t="n">
-        <v>112.1255684875681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>131.0199644990624</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>85.09796654162027</v>
@@ -3946,7 +3946,7 @@
         <v>41.52313101845789</v>
       </c>
       <c r="S43" t="n">
-        <v>97.49087611331367</v>
+        <v>97.49087611331362</v>
       </c>
       <c r="T43" t="n">
         <v>105.8361260439169</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.8593964470596</v>
+        <v>24.6035427114807</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>271.3984465545866</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>288.0559248558409</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="G44" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="H44" t="n">
-        <v>237.9354713834509</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>75.43651272092049</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.3634934396326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.65873843344639</v>
+        <v>72.65873843344642</v>
       </c>
       <c r="C45" t="n">
-        <v>78.83405377189479</v>
+        <v>78.83405377189482</v>
       </c>
       <c r="D45" t="n">
-        <v>53.5706203482178</v>
+        <v>53.57062034821783</v>
       </c>
       <c r="E45" t="n">
-        <v>63.77063523897999</v>
+        <v>63.77063523898002</v>
       </c>
       <c r="F45" t="n">
-        <v>51.19476717696293</v>
+        <v>51.19476717696296</v>
       </c>
       <c r="G45" t="n">
-        <v>43.06862519446867</v>
+        <v>43.0686251944687</v>
       </c>
       <c r="H45" t="n">
-        <v>14.49352643844889</v>
+        <v>14.49352643844892</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>70.37060309759457</v>
+        <v>70.3706030975946</v>
       </c>
       <c r="T45" t="n">
         <v>104.6762020512822</v>
       </c>
       <c r="U45" t="n">
-        <v>132.04059168348</v>
+        <v>132.0405916834801</v>
       </c>
       <c r="V45" t="n">
         <v>138.9261419330043</v>
@@ -4119,7 +4119,7 @@
         <v>157.8205379444987</v>
       </c>
       <c r="X45" t="n">
-        <v>111.8985399870565</v>
+        <v>111.8985399870566</v>
       </c>
       <c r="Y45" t="n">
         <v>111.8082505608834</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.95753496551634</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.37237588220688</v>
+        <v>1.143227260690222</v>
       </c>
       <c r="D46" t="n">
-        <v>54.7410278017914</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.78081303677014</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.05137095489363</v>
+        <v>51.47998047242363</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>68.32370446389417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>124.2914495587499</v>
       </c>
       <c r="T46" t="n">
         <v>132.6366994893532</v>
@@ -4192,16 +4192,16 @@
         <v>192.4262720797826</v>
       </c>
       <c r="V46" t="n">
-        <v>158.263198107407</v>
+        <v>158.2631981074071</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>192.6485531201701</v>
       </c>
       <c r="X46" t="n">
-        <v>131.8352101726162</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.7102081356738</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>772.1775502020382</v>
+        <v>857.8512259082436</v>
       </c>
       <c r="C11" t="n">
-        <v>525.1089915059267</v>
+        <v>610.7826672121321</v>
       </c>
       <c r="D11" t="n">
-        <v>288.7372511434764</v>
+        <v>610.7826672121321</v>
       </c>
       <c r="E11" t="n">
-        <v>24.84295678953242</v>
+        <v>610.7826672121321</v>
       </c>
       <c r="F11" t="n">
-        <v>24.84295678953242</v>
+        <v>321.6907206668247</v>
       </c>
       <c r="G11" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="I11" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J11" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="K11" t="n">
         <v>222.1093635678431</v>
       </c>
       <c r="L11" t="n">
-        <v>519.1124122074657</v>
+        <v>519.1124122074656</v>
       </c>
       <c r="M11" t="n">
-        <v>826.5440024779294</v>
+        <v>660.6798481008204</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.975592748393</v>
+        <v>968.1114383712842</v>
       </c>
       <c r="O11" t="n">
         <v>1242.147839476621</v>
@@ -5066,25 +5066,25 @@
         <v>1242.147839476621</v>
       </c>
       <c r="S11" t="n">
-        <v>1242.147839476621</v>
+        <v>1170.13759430937</v>
       </c>
       <c r="T11" t="n">
-        <v>1242.147839476621</v>
+        <v>1170.13759430937</v>
       </c>
       <c r="U11" t="n">
-        <v>1242.147839476621</v>
+        <v>1170.13759430937</v>
       </c>
       <c r="V11" t="n">
-        <v>1242.147839476621</v>
+        <v>1170.13759430937</v>
       </c>
       <c r="W11" t="n">
-        <v>1036.88343202186</v>
+        <v>1109.423025925023</v>
       </c>
       <c r="X11" t="n">
-        <v>1036.88343202186</v>
+        <v>857.8512259082436</v>
       </c>
       <c r="Y11" t="n">
-        <v>1036.88343202186</v>
+        <v>857.8512259082436</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>351.4760764561613</v>
+        <v>183.7437242106334</v>
       </c>
       <c r="C12" t="n">
-        <v>298.9170054193344</v>
+        <v>131.1846531738066</v>
       </c>
       <c r="D12" t="n">
-        <v>271.8765540023834</v>
+        <v>104.1442017568556</v>
       </c>
       <c r="E12" t="n">
-        <v>112.6390989969279</v>
+        <v>66.80070499570024</v>
       </c>
       <c r="F12" t="n">
-        <v>87.99849926811306</v>
+        <v>42.16010526688541</v>
       </c>
       <c r="G12" t="n">
-        <v>24.84295678953242</v>
+        <v>25.72772976281225</v>
       </c>
       <c r="H12" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="I12" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J12" t="n">
         <v>61.55893338017508</v>
@@ -5124,46 +5124,46 @@
         <v>250.9332285231031</v>
       </c>
       <c r="L12" t="n">
-        <v>250.9332285231031</v>
+        <v>558.3648187935669</v>
       </c>
       <c r="M12" t="n">
-        <v>250.9332285231031</v>
+        <v>558.3648187935669</v>
       </c>
       <c r="N12" t="n">
-        <v>556.3696146045564</v>
+        <v>676.3696830159352</v>
       </c>
       <c r="O12" t="n">
-        <v>863.8012048750202</v>
+        <v>983.801273286399</v>
       </c>
       <c r="P12" t="n">
-        <v>1122.147771065243</v>
+        <v>1242.147839476621</v>
       </c>
       <c r="Q12" t="n">
         <v>1242.147839476621</v>
       </c>
       <c r="R12" t="n">
-        <v>1166.092275233548</v>
+        <v>1242.147839476621</v>
       </c>
       <c r="S12" t="n">
-        <v>1122.082144271772</v>
+        <v>1198.137708514845</v>
       </c>
       <c r="T12" t="n">
-        <v>921.5259349104562</v>
+        <v>1119.475457397829</v>
       </c>
       <c r="U12" t="n">
-        <v>815.2228861851593</v>
+        <v>1013.172408672532</v>
       </c>
       <c r="V12" t="n">
-        <v>701.9647361977168</v>
+        <v>778.0203004407895</v>
       </c>
       <c r="W12" t="n">
-        <v>569.6213377138154</v>
+        <v>645.6769019568881</v>
       </c>
       <c r="X12" t="n">
-        <v>483.6637957525828</v>
+        <v>559.7193599956554</v>
       </c>
       <c r="Y12" t="n">
-        <v>397.7974552319291</v>
+        <v>351.9590612307015</v>
       </c>
     </row>
     <row r="13">
@@ -5179,37 +5179,37 @@
         <v>215.4211005665125</v>
       </c>
       <c r="D13" t="n">
-        <v>187.1984193984769</v>
+        <v>187.198419398477</v>
       </c>
       <c r="E13" t="n">
-        <v>161.179284060384</v>
+        <v>161.1792840603841</v>
       </c>
       <c r="F13" t="n">
         <v>136.1832948067739</v>
       </c>
       <c r="G13" t="n">
-        <v>88.72850734078008</v>
+        <v>88.72850734078011</v>
       </c>
       <c r="H13" t="n">
-        <v>49.7716507561863</v>
+        <v>49.77165075618632</v>
       </c>
       <c r="I13" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J13" t="n">
-        <v>75.38376427026617</v>
+        <v>75.38376427026662</v>
       </c>
       <c r="K13" t="n">
-        <v>211.4198773657702</v>
+        <v>211.4198773657706</v>
       </c>
       <c r="L13" t="n">
-        <v>407.6157174486517</v>
+        <v>407.615717448652</v>
       </c>
       <c r="M13" t="n">
-        <v>618.3715752792891</v>
+        <v>618.3715752792893</v>
       </c>
       <c r="N13" t="n">
-        <v>832.3914346947029</v>
+        <v>832.3914346947031</v>
       </c>
       <c r="O13" t="n">
         <v>1023.177105507159</v>
@@ -5227,16 +5227,16 @@
         <v>1101.72965045463</v>
       </c>
       <c r="T13" t="n">
-        <v>994.8244726324913</v>
+        <v>994.8244726324915</v>
       </c>
       <c r="U13" t="n">
-        <v>827.5257871432527</v>
+        <v>827.5257871432528</v>
       </c>
       <c r="V13" t="n">
-        <v>694.735257181666</v>
+        <v>694.7352571816662</v>
       </c>
       <c r="W13" t="n">
-        <v>527.2120453890057</v>
+        <v>527.2120453890058</v>
       </c>
       <c r="X13" t="n">
         <v>421.1164527352886</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>457.6247839085083</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="C14" t="n">
-        <v>288.7372511434764</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="D14" t="n">
-        <v>288.7372511434764</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="E14" t="n">
-        <v>24.84295678953242</v>
+        <v>610.7826672121321</v>
       </c>
       <c r="F14" t="n">
-        <v>24.84295678953242</v>
+        <v>321.6907206668247</v>
       </c>
       <c r="G14" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="H14" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="I14" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J14" t="n">
-        <v>24.84295678953242</v>
+        <v>75.90022013895509</v>
       </c>
       <c r="K14" t="n">
-        <v>222.1093635678431</v>
+        <v>273.1666269172657</v>
       </c>
       <c r="L14" t="n">
-        <v>519.1124122074657</v>
+        <v>570.1696755568883</v>
       </c>
       <c r="M14" t="n">
-        <v>519.1124122074657</v>
+        <v>877.6012658273521</v>
       </c>
       <c r="N14" t="n">
-        <v>771.9020929916254</v>
+        <v>1045.938494096963</v>
       </c>
       <c r="O14" t="n">
         <v>1045.938494096963</v>
@@ -5303,25 +5303,25 @@
         <v>1242.147839476621</v>
       </c>
       <c r="S14" t="n">
-        <v>1242.147839476621</v>
+        <v>1170.13759430937</v>
       </c>
       <c r="T14" t="n">
-        <v>1242.147839476621</v>
+        <v>1083.845890665347</v>
       </c>
       <c r="U14" t="n">
-        <v>1242.147839476621</v>
+        <v>1083.845890665347</v>
       </c>
       <c r="V14" t="n">
-        <v>1242.147839476621</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="W14" t="n">
-        <v>1242.147839476621</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="X14" t="n">
-        <v>990.5760394598415</v>
+        <v>874.6769615660762</v>
       </c>
       <c r="Y14" t="n">
-        <v>722.3306657283299</v>
+        <v>874.6769615660762</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>427.5316406992342</v>
+        <v>304.7529094816538</v>
       </c>
       <c r="C15" t="n">
-        <v>374.9725696624074</v>
+        <v>252.193838444827</v>
       </c>
       <c r="D15" t="n">
-        <v>226.0381600011561</v>
+        <v>225.1533870278759</v>
       </c>
       <c r="E15" t="n">
-        <v>66.80070499570058</v>
+        <v>187.8098902667206</v>
       </c>
       <c r="F15" t="n">
-        <v>41.27533229360557</v>
+        <v>41.27533229360559</v>
       </c>
       <c r="G15" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="H15" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="I15" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J15" t="n">
         <v>61.55893338017508</v>
       </c>
       <c r="K15" t="n">
-        <v>250.9332285231031</v>
+        <v>61.55893338017508</v>
       </c>
       <c r="L15" t="n">
-        <v>558.3648187935669</v>
+        <v>368.9380927454714</v>
       </c>
       <c r="M15" t="n">
-        <v>676.369683015935</v>
+        <v>368.9380927454714</v>
       </c>
       <c r="N15" t="n">
-        <v>676.369683015935</v>
+        <v>676.3696830159352</v>
       </c>
       <c r="O15" t="n">
-        <v>983.8012732863988</v>
+        <v>983.801273286399</v>
       </c>
       <c r="P15" t="n">
         <v>1242.147839476621</v>
@@ -5385,22 +5385,22 @@
         <v>1198.137708514845</v>
       </c>
       <c r="T15" t="n">
-        <v>1119.475457397829</v>
+        <v>1118.590684424549</v>
       </c>
       <c r="U15" t="n">
-        <v>1013.172408672532</v>
+        <v>890.393677454952</v>
       </c>
       <c r="V15" t="n">
-        <v>899.9142586850899</v>
+        <v>655.2415692232094</v>
       </c>
       <c r="W15" t="n">
-        <v>767.5708602011885</v>
+        <v>522.8981707393079</v>
       </c>
       <c r="X15" t="n">
-        <v>681.6133182399559</v>
+        <v>436.9406287780753</v>
       </c>
       <c r="Y15" t="n">
-        <v>473.853019475002</v>
+        <v>351.0742882574216</v>
       </c>
     </row>
     <row r="16">
@@ -5416,25 +5416,25 @@
         <v>215.4211005665125</v>
       </c>
       <c r="D16" t="n">
-        <v>187.1984193984769</v>
+        <v>187.198419398477</v>
       </c>
       <c r="E16" t="n">
-        <v>161.179284060384</v>
+        <v>161.1792840603841</v>
       </c>
       <c r="F16" t="n">
-        <v>136.1832948067738</v>
+        <v>136.1832948067739</v>
       </c>
       <c r="G16" t="n">
-        <v>88.72850734078003</v>
+        <v>88.72850734078011</v>
       </c>
       <c r="H16" t="n">
-        <v>49.7716507561863</v>
+        <v>49.77165075618633</v>
       </c>
       <c r="I16" t="n">
-        <v>24.84295678953242</v>
+        <v>24.84295678953243</v>
       </c>
       <c r="J16" t="n">
-        <v>75.38376427026625</v>
+        <v>75.38376427026624</v>
       </c>
       <c r="K16" t="n">
         <v>211.4198773657702</v>
@@ -5446,7 +5446,7 @@
         <v>618.3715752792891</v>
       </c>
       <c r="N16" t="n">
-        <v>832.3914346947028</v>
+        <v>832.3914346947029</v>
       </c>
       <c r="O16" t="n">
         <v>1023.177105507159</v>
@@ -5455,25 +5455,25 @@
         <v>1180.149049914974</v>
       </c>
       <c r="Q16" t="n">
-        <v>1242.147839476621</v>
+        <v>1242.147839476622</v>
       </c>
       <c r="R16" t="n">
-        <v>1200.20528289232</v>
+        <v>1200.205282892321</v>
       </c>
       <c r="S16" t="n">
         <v>1101.72965045463</v>
       </c>
       <c r="T16" t="n">
-        <v>994.8244726324915</v>
+        <v>994.8244726324916</v>
       </c>
       <c r="U16" t="n">
-        <v>827.5257871432527</v>
+        <v>827.5257871432528</v>
       </c>
       <c r="V16" t="n">
-        <v>694.735257181666</v>
+        <v>694.7352571816662</v>
       </c>
       <c r="W16" t="n">
-        <v>527.2120453890057</v>
+        <v>527.2120453890058</v>
       </c>
       <c r="X16" t="n">
         <v>421.1164527352886</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1108.608365846903</v>
+        <v>714.4911797301472</v>
       </c>
       <c r="C17" t="n">
-        <v>916.0604852959921</v>
+        <v>521.943299179236</v>
       </c>
       <c r="D17" t="n">
-        <v>734.209423078742</v>
+        <v>480.084459990319</v>
       </c>
       <c r="E17" t="n">
-        <v>524.8358068699981</v>
+        <v>270.7108437815752</v>
       </c>
       <c r="F17" t="n">
-        <v>290.264538469891</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="G17" t="n">
-        <v>194.8864709110302</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="H17" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I17" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J17" t="n">
-        <v>87.19683873089079</v>
+        <v>87.19683873089078</v>
       </c>
       <c r="K17" t="n">
         <v>284.4632455092014</v>
       </c>
       <c r="L17" t="n">
-        <v>581.4662941488241</v>
+        <v>581.466294148824</v>
       </c>
       <c r="M17" t="n">
-        <v>928.5459575942763</v>
+        <v>928.5459575942762</v>
       </c>
       <c r="N17" t="n">
         <v>1266.609735309079</v>
@@ -5540,25 +5540,25 @@
         <v>1806.978769073406</v>
       </c>
       <c r="S17" t="n">
-        <v>1806.978769073406</v>
+        <v>1789.489202051354</v>
       </c>
       <c r="T17" t="n">
-        <v>1806.978769073406</v>
+        <v>1743.863852791333</v>
       </c>
       <c r="U17" t="n">
-        <v>1729.569386979415</v>
+        <v>1666.454470697343</v>
       </c>
       <c r="V17" t="n">
-        <v>1729.569386979415</v>
+        <v>1511.806219743273</v>
       </c>
       <c r="W17" t="n">
-        <v>1729.569386979415</v>
+        <v>1335.452200862659</v>
       </c>
       <c r="X17" t="n">
-        <v>1532.518265107836</v>
+        <v>1138.40107899108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1318.793569521525</v>
+        <v>924.6763834047686</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>286.9656566048364</v>
+        <v>518.7644693293018</v>
       </c>
       <c r="C18" t="n">
-        <v>112.5126273237094</v>
+        <v>344.3114400481749</v>
       </c>
       <c r="D18" t="n">
-        <v>112.5126273237094</v>
+        <v>195.3770303869236</v>
       </c>
       <c r="E18" t="n">
-        <v>112.5126273237094</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="F18" t="n">
-        <v>112.5126273237094</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="G18" t="n">
-        <v>112.5126273237094</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="H18" t="n">
-        <v>112.5126273237094</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I18" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J18" t="n">
-        <v>72.85555197211077</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="K18" t="n">
-        <v>262.2298471150388</v>
+        <v>225.5138705243962</v>
       </c>
       <c r="L18" t="n">
-        <v>578.2713534610862</v>
+        <v>541.5553768704435</v>
       </c>
       <c r="M18" t="n">
-        <v>999.0561062924064</v>
+        <v>962.3401297017638</v>
       </c>
       <c r="N18" t="n">
-        <v>1085.55501589913</v>
+        <v>1409.567375047432</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.632134471805</v>
+        <v>1686.978700662027</v>
       </c>
       <c r="P18" t="n">
         <v>1686.978700662027</v>
@@ -5616,28 +5616,28 @@
         <v>1806.978769073406</v>
       </c>
       <c r="R18" t="n">
-        <v>1806.978769073406</v>
+        <v>1730.923204830333</v>
       </c>
       <c r="S18" t="n">
-        <v>1641.074679867329</v>
+        <v>1730.923204830333</v>
       </c>
       <c r="T18" t="n">
-        <v>1588.379264524932</v>
+        <v>1530.366995469017</v>
       </c>
       <c r="U18" t="n">
-        <v>1360.182257555335</v>
+        <v>1302.16998849942</v>
       </c>
       <c r="V18" t="n">
-        <v>1125.030149323593</v>
+        <v>1243.432516657177</v>
       </c>
       <c r="W18" t="n">
-        <v>870.7927925953911</v>
+        <v>1102.591605319857</v>
       </c>
       <c r="X18" t="n">
-        <v>662.9412923898583</v>
+        <v>894.7401051143238</v>
       </c>
       <c r="Y18" t="n">
-        <v>455.1809936249044</v>
+        <v>686.9798063493699</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="C19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="D19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="E19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="F19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="G19" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="H19" t="n">
-        <v>51.39367689301847</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I19" t="n">
-        <v>51.39367689301847</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J19" t="n">
-        <v>149.7604330687918</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="K19" t="n">
-        <v>166.3282776890572</v>
+        <v>52.70742000173348</v>
       </c>
       <c r="L19" t="n">
-        <v>243.0558492967</v>
+        <v>243.0558492966996</v>
       </c>
       <c r="M19" t="n">
-        <v>334.3434386520988</v>
+        <v>334.3434386520984</v>
       </c>
       <c r="N19" t="n">
-        <v>428.895029592274</v>
+        <v>428.8950295922735</v>
       </c>
       <c r="O19" t="n">
-        <v>500.2124319294913</v>
+        <v>500.2124319294909</v>
       </c>
       <c r="P19" t="n">
-        <v>537.7161078620677</v>
+        <v>537.7161078620672</v>
       </c>
       <c r="Q19" t="n">
-        <v>537.7161078620677</v>
+        <v>537.7161078620672</v>
       </c>
       <c r="R19" t="n">
-        <v>537.7161078620677</v>
+        <v>537.7161078620672</v>
       </c>
       <c r="S19" t="n">
-        <v>493.7611535695774</v>
+        <v>493.7611535695769</v>
       </c>
       <c r="T19" t="n">
-        <v>441.3766538926393</v>
+        <v>441.3766538926389</v>
       </c>
       <c r="U19" t="n">
-        <v>328.5986465486008</v>
+        <v>328.5986465486004</v>
       </c>
       <c r="V19" t="n">
-        <v>250.3287947322142</v>
+        <v>250.328794732214</v>
       </c>
       <c r="W19" t="n">
-        <v>137.326261084754</v>
+        <v>137.3262610847539</v>
       </c>
       <c r="X19" t="n">
-        <v>85.75134657623711</v>
+        <v>85.75134657623698</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.37340382220741</v>
+        <v>41.37340382220735</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1122.902831658821</v>
+        <v>839.1350534027772</v>
       </c>
       <c r="C20" t="n">
-        <v>930.3549511079102</v>
+        <v>646.5871728518659</v>
       </c>
       <c r="D20" t="n">
-        <v>748.5038888906602</v>
+        <v>646.5871728518659</v>
       </c>
       <c r="E20" t="n">
-        <v>539.1302726819163</v>
+        <v>437.2135566431222</v>
       </c>
       <c r="F20" t="n">
-        <v>304.5590042818092</v>
+        <v>437.2135566431222</v>
       </c>
       <c r="G20" t="n">
-        <v>62.23191854971705</v>
+        <v>194.8864709110302</v>
       </c>
       <c r="H20" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I20" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J20" t="n">
-        <v>87.19683873089079</v>
+        <v>87.19683873089082</v>
       </c>
       <c r="K20" t="n">
         <v>284.4632455092014</v>
       </c>
       <c r="L20" t="n">
-        <v>581.4662941488243</v>
+        <v>581.4662941488241</v>
       </c>
       <c r="M20" t="n">
-        <v>928.5459575942764</v>
+        <v>928.5459575942762</v>
       </c>
       <c r="N20" t="n">
         <v>1266.609735309079</v>
       </c>
       <c r="O20" t="n">
-        <v>1540.646136414417</v>
+        <v>1540.646136414416</v>
       </c>
       <c r="P20" t="n">
         <v>1736.855481794075</v>
@@ -5780,22 +5780,22 @@
         <v>1789.489202051354</v>
       </c>
       <c r="T20" t="n">
-        <v>1743.863852791334</v>
+        <v>1743.863852791333</v>
       </c>
       <c r="U20" t="n">
-        <v>1743.863852791334</v>
+        <v>1743.863852791333</v>
       </c>
       <c r="V20" t="n">
-        <v>1743.863852791334</v>
+        <v>1589.215601837263</v>
       </c>
       <c r="W20" t="n">
-        <v>1743.863852791334</v>
+        <v>1412.861582956649</v>
       </c>
       <c r="X20" t="n">
-        <v>1546.812730919754</v>
+        <v>1215.81046108507</v>
       </c>
       <c r="Y20" t="n">
-        <v>1333.088035333443</v>
+        <v>1002.085765498759</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>396.4282542360181</v>
+        <v>758.1972967174218</v>
       </c>
       <c r="C21" t="n">
-        <v>221.975224954891</v>
+        <v>629.1723317696633</v>
       </c>
       <c r="D21" t="n">
-        <v>221.975224954891</v>
+        <v>480.237922108412</v>
       </c>
       <c r="E21" t="n">
-        <v>221.975224954891</v>
+        <v>321.0004671029565</v>
       </c>
       <c r="F21" t="n">
-        <v>221.975224954891</v>
+        <v>174.4659091298415</v>
       </c>
       <c r="G21" t="n">
-        <v>221.975224954891</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="H21" t="n">
-        <v>112.5126273237094</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I21" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J21" t="n">
-        <v>72.85555197211077</v>
+        <v>72.85555197211076</v>
       </c>
       <c r="K21" t="n">
-        <v>72.85555197211077</v>
+        <v>262.2298471150388</v>
       </c>
       <c r="L21" t="n">
-        <v>388.8970583181581</v>
+        <v>578.2713534610862</v>
       </c>
       <c r="M21" t="n">
-        <v>638.3277705534625</v>
+        <v>999.0561062924064</v>
       </c>
       <c r="N21" t="n">
-        <v>1085.55501589913</v>
+        <v>1446.283351638074</v>
       </c>
       <c r="O21" t="n">
-        <v>1428.632134471805</v>
+        <v>1789.360470210749</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.978700662027</v>
+        <v>1806.978769073406</v>
       </c>
       <c r="Q21" t="n">
         <v>1806.978769073406</v>
       </c>
       <c r="R21" t="n">
-        <v>1806.978769073406</v>
+        <v>1730.923204830333</v>
       </c>
       <c r="S21" t="n">
-        <v>1641.074679867329</v>
+        <v>1730.923204830333</v>
       </c>
       <c r="T21" t="n">
-        <v>1440.518470506013</v>
+        <v>1530.366995469017</v>
       </c>
       <c r="U21" t="n">
-        <v>1212.321463536416</v>
+        <v>1478.58462488892</v>
       </c>
       <c r="V21" t="n">
-        <v>977.1693553046734</v>
+        <v>1419.847153046678</v>
       </c>
       <c r="W21" t="n">
-        <v>722.9319985764719</v>
+        <v>1342.024432707977</v>
       </c>
       <c r="X21" t="n">
-        <v>691.4951347604394</v>
+        <v>1134.172932502444</v>
       </c>
       <c r="Y21" t="n">
-        <v>564.6435912560861</v>
+        <v>926.4126337374898</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="C22" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="D22" t="n">
-        <v>36.13957538146812</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="E22" t="n">
-        <v>64.07393748671399</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="F22" t="n">
-        <v>64.07393748671399</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="G22" t="n">
-        <v>64.07393748671399</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="H22" t="n">
-        <v>64.07393748671399</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="I22" t="n">
-        <v>64.07393748671399</v>
+        <v>36.13957538146811</v>
       </c>
       <c r="J22" t="n">
-        <v>64.07393748671399</v>
+        <v>140.1160995123127</v>
       </c>
       <c r="K22" t="n">
-        <v>80.64178210697936</v>
+        <v>156.6839441325781</v>
       </c>
       <c r="L22" t="n">
-        <v>157.3693537146222</v>
+        <v>233.4115157402209</v>
       </c>
       <c r="M22" t="n">
-        <v>248.656943070021</v>
+        <v>324.6991050956196</v>
       </c>
       <c r="N22" t="n">
-        <v>343.2085340101962</v>
+        <v>419.2506960357948</v>
       </c>
       <c r="O22" t="n">
-        <v>414.5259363474135</v>
+        <v>490.5680983730122</v>
       </c>
       <c r="P22" t="n">
-        <v>452.0296122799899</v>
+        <v>528.0717743055885</v>
       </c>
       <c r="Q22" t="n">
-        <v>537.7161078620677</v>
+        <v>537.7161078620672</v>
       </c>
       <c r="R22" t="n">
-        <v>537.7161078620677</v>
+        <v>537.7161078620672</v>
       </c>
       <c r="S22" t="n">
-        <v>493.7611535695774</v>
+        <v>493.7611535695769</v>
       </c>
       <c r="T22" t="n">
-        <v>441.3766538926393</v>
+        <v>441.3766538926389</v>
       </c>
       <c r="U22" t="n">
-        <v>328.5986465486008</v>
+        <v>328.5986465486004</v>
       </c>
       <c r="V22" t="n">
-        <v>250.3287947322142</v>
+        <v>250.328794732214</v>
       </c>
       <c r="W22" t="n">
-        <v>137.326261084754</v>
+        <v>137.3262610847539</v>
       </c>
       <c r="X22" t="n">
-        <v>85.75134657623711</v>
+        <v>85.75134657623698</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.37340382220741</v>
+        <v>41.37340382220735</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1269.969249330749</v>
+        <v>1104.180483938233</v>
       </c>
       <c r="C23" t="n">
-        <v>1077.421368779838</v>
+        <v>911.6326033873221</v>
       </c>
       <c r="D23" t="n">
-        <v>895.570306562588</v>
+        <v>729.781541170072</v>
       </c>
       <c r="E23" t="n">
-        <v>686.1966903538441</v>
+        <v>520.4079249613283</v>
       </c>
       <c r="F23" t="n">
-        <v>451.625421953737</v>
+        <v>285.8366565612212</v>
       </c>
       <c r="G23" t="n">
-        <v>209.2983362216449</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="H23" t="n">
-        <v>50.55144069208281</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="I23" t="n">
         <v>43.50957082912912</v>
       </c>
       <c r="J23" t="n">
-        <v>94.56683417855182</v>
+        <v>94.56683417855177</v>
       </c>
       <c r="K23" t="n">
-        <v>291.8332409568625</v>
+        <v>291.8332409568624</v>
       </c>
       <c r="L23" t="n">
-        <v>588.8362895964851</v>
+        <v>588.8362895964849</v>
       </c>
       <c r="M23" t="n">
-        <v>935.9159530419373</v>
+        <v>935.9159530419371</v>
       </c>
       <c r="N23" t="n">
         <v>1446.88371588209</v>
       </c>
       <c r="O23" t="n">
-        <v>1720.920116987427</v>
+        <v>1838.068757499401</v>
       </c>
       <c r="P23" t="n">
-        <v>2090.033447492435</v>
+        <v>2034.27810287906</v>
       </c>
       <c r="Q23" t="n">
-        <v>2160.156734771766</v>
+        <v>2104.40139015839</v>
       </c>
       <c r="R23" t="n">
         <v>2175.478541456456</v>
@@ -6017,22 +6017,22 @@
         <v>2157.988974434404</v>
       </c>
       <c r="T23" t="n">
-        <v>2157.988974434404</v>
+        <v>2112.363625174383</v>
       </c>
       <c r="U23" t="n">
-        <v>2080.579592340414</v>
+        <v>2034.954243080393</v>
       </c>
       <c r="V23" t="n">
-        <v>2067.284289343875</v>
+        <v>1880.305992126323</v>
       </c>
       <c r="W23" t="n">
-        <v>1890.930270463261</v>
+        <v>1703.951973245709</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.879148591682</v>
+        <v>1506.90085137413</v>
       </c>
       <c r="Y23" t="n">
-        <v>1480.154453005371</v>
+        <v>1314.365687612855</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>996.8310060718742</v>
+        <v>858.5046723235008</v>
       </c>
       <c r="C24" t="n">
-        <v>822.3779767907472</v>
+        <v>684.0516430423738</v>
       </c>
       <c r="D24" t="n">
-        <v>673.4435671294959</v>
+        <v>535.1172333811226</v>
       </c>
       <c r="E24" t="n">
-        <v>514.2061121240405</v>
+        <v>375.8797783756671</v>
       </c>
       <c r="F24" t="n">
-        <v>367.6715541509254</v>
+        <v>229.3452204025521</v>
       </c>
       <c r="G24" t="n">
-        <v>229.345220402552</v>
+        <v>229.3452204025521</v>
       </c>
       <c r="H24" t="n">
         <v>119.8826227713704</v>
@@ -6069,7 +6069,7 @@
         <v>80.22554741977183</v>
       </c>
       <c r="K24" t="n">
-        <v>269.5998425626999</v>
+        <v>269.5998425627001</v>
       </c>
       <c r="L24" t="n">
         <v>585.6413489087474</v>
@@ -6090,28 +6090,28 @@
         <v>2175.478541456456</v>
       </c>
       <c r="R24" t="n">
-        <v>2135.461003390862</v>
+        <v>2099.422977213383</v>
       </c>
       <c r="S24" t="n">
-        <v>1969.556914184785</v>
+        <v>1933.518888007307</v>
       </c>
       <c r="T24" t="n">
-        <v>1769.000704823469</v>
+        <v>1909.377315035491</v>
       </c>
       <c r="U24" t="n">
-        <v>1717.218334243372</v>
+        <v>1681.180308065894</v>
       </c>
       <c r="V24" t="n">
-        <v>1658.48086240113</v>
+        <v>1622.442836223652</v>
       </c>
       <c r="W24" t="n">
-        <v>1580.658142062429</v>
+        <v>1442.331808314055</v>
       </c>
       <c r="X24" t="n">
-        <v>1372.806641856896</v>
+        <v>1234.480308108523</v>
       </c>
       <c r="Y24" t="n">
-        <v>1165.046343091942</v>
+        <v>1026.720009343569</v>
       </c>
     </row>
     <row r="25">
@@ -6124,73 +6124,73 @@
         <v>43.50957082912912</v>
       </c>
       <c r="C25" t="n">
-        <v>43.50957082912912</v>
+        <v>50.83920306683696</v>
       </c>
       <c r="D25" t="n">
-        <v>43.50957082912912</v>
+        <v>50.83920306683696</v>
       </c>
       <c r="E25" t="n">
-        <v>43.50957082912912</v>
+        <v>78.77356517208287</v>
       </c>
       <c r="F25" t="n">
-        <v>43.50957082912912</v>
+        <v>107.7107127547303</v>
       </c>
       <c r="G25" t="n">
-        <v>43.50957082912912</v>
+        <v>114.6359922094206</v>
       </c>
       <c r="H25" t="n">
-        <v>43.50957082912912</v>
+        <v>129.890093720971</v>
       </c>
       <c r="I25" t="n">
-        <v>43.50957082912912</v>
+        <v>129.890093720971</v>
       </c>
       <c r="J25" t="n">
-        <v>43.50957082912912</v>
+        <v>157.1304285164524</v>
       </c>
       <c r="K25" t="n">
-        <v>60.07741544939451</v>
+        <v>173.6982731367178</v>
       </c>
       <c r="L25" t="n">
-        <v>136.8049870570374</v>
+        <v>250.4258447443606</v>
       </c>
       <c r="M25" t="n">
-        <v>228.0925764124362</v>
+        <v>341.7134340997594</v>
       </c>
       <c r="N25" t="n">
-        <v>322.6441673526114</v>
+        <v>436.2650250399346</v>
       </c>
       <c r="O25" t="n">
-        <v>393.9615696898287</v>
+        <v>507.5824273771519</v>
       </c>
       <c r="P25" t="n">
-        <v>431.4652456224051</v>
+        <v>545.0861033097283</v>
       </c>
       <c r="Q25" t="n">
-        <v>545.0861033097286</v>
+        <v>545.0861033097283</v>
       </c>
       <c r="R25" t="n">
-        <v>545.0861033097286</v>
+        <v>545.0861033097283</v>
       </c>
       <c r="S25" t="n">
-        <v>501.1311490172383</v>
+        <v>501.131149017238</v>
       </c>
       <c r="T25" t="n">
-        <v>448.7466493403002</v>
+        <v>448.7466493402999</v>
       </c>
       <c r="U25" t="n">
-        <v>335.9686419962617</v>
+        <v>335.9686419962615</v>
       </c>
       <c r="V25" t="n">
-        <v>257.6987901798752</v>
+        <v>257.698790179875</v>
       </c>
       <c r="W25" t="n">
-        <v>144.696256532415</v>
+        <v>144.6962565324149</v>
       </c>
       <c r="X25" t="n">
-        <v>93.12134202389811</v>
+        <v>93.12134202389799</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.74339926986841</v>
+        <v>48.74339926986836</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.8357721188472</v>
+        <v>1447.821874966409</v>
       </c>
       <c r="C26" t="n">
-        <v>471.7672134227357</v>
+        <v>1200.753316270297</v>
       </c>
       <c r="D26" t="n">
-        <v>471.7672134227357</v>
+        <v>1168.173697288589</v>
       </c>
       <c r="E26" t="n">
-        <v>471.7672134227357</v>
+        <v>904.2794029346448</v>
       </c>
       <c r="F26" t="n">
-        <v>318.3396925120453</v>
+        <v>615.1874563893375</v>
       </c>
       <c r="G26" t="n">
         <v>318.3396925120453</v>
@@ -6224,25 +6224,25 @@
         <v>43.50957082912912</v>
       </c>
       <c r="J26" t="n">
-        <v>94.56683417855182</v>
+        <v>94.56683417855177</v>
       </c>
       <c r="K26" t="n">
-        <v>291.8332409568625</v>
+        <v>291.8332409568624</v>
       </c>
       <c r="L26" t="n">
-        <v>588.8362895964851</v>
+        <v>588.8362895964849</v>
       </c>
       <c r="M26" t="n">
-        <v>935.9159530419373</v>
+        <v>1055.384221517176</v>
       </c>
       <c r="N26" t="n">
-        <v>1273.979730756741</v>
+        <v>1393.447999231979</v>
       </c>
       <c r="O26" t="n">
-        <v>1667.484400337316</v>
+        <v>1786.952668812555</v>
       </c>
       <c r="P26" t="n">
-        <v>1983.162014192214</v>
+        <v>2102.630282667452</v>
       </c>
       <c r="Q26" t="n">
         <v>2172.753569946783</v>
@@ -6260,16 +6260,16 @@
         <v>1943.402453812044</v>
       </c>
       <c r="V26" t="n">
-        <v>1734.233524712774</v>
+        <v>1943.402453812044</v>
       </c>
       <c r="W26" t="n">
-        <v>1503.35882768696</v>
+        <v>1712.52775678623</v>
       </c>
       <c r="X26" t="n">
-        <v>1251.78702767018</v>
+        <v>1712.52775678623</v>
       </c>
       <c r="Y26" t="n">
-        <v>983.5416539386688</v>
+        <v>1712.52775678623</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>751.3925514575676</v>
+        <v>689.101398254151</v>
       </c>
       <c r="C27" t="n">
-        <v>698.8334804207408</v>
+        <v>514.648368973024</v>
       </c>
       <c r="D27" t="n">
-        <v>549.8990707594895</v>
+        <v>365.7139593117728</v>
       </c>
       <c r="E27" t="n">
-        <v>512.5555739983342</v>
+        <v>206.4765043063173</v>
       </c>
       <c r="F27" t="n">
-        <v>367.6715541509254</v>
+        <v>59.94194633320224</v>
       </c>
       <c r="G27" t="n">
-        <v>229.345220402552</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="H27" t="n">
-        <v>119.8826227713704</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="I27" t="n">
         <v>43.50957082912912</v>
       </c>
       <c r="J27" t="n">
-        <v>80.22554741977183</v>
+        <v>80.22554741977171</v>
       </c>
       <c r="K27" t="n">
-        <v>269.5998425626999</v>
+        <v>269.5998425626998</v>
       </c>
       <c r="L27" t="n">
-        <v>585.6413489087472</v>
+        <v>585.6413489087471</v>
       </c>
       <c r="M27" t="n">
-        <v>1006.426101740068</v>
+        <v>1006.426101740067</v>
       </c>
       <c r="N27" t="n">
         <v>1454.054788282181</v>
@@ -6327,28 +6327,28 @@
         <v>2175.478541456456</v>
       </c>
       <c r="R27" t="n">
-        <v>2175.478541456456</v>
+        <v>2113.187388253039</v>
       </c>
       <c r="S27" t="n">
-        <v>2009.574452250379</v>
+        <v>2069.177257291263</v>
       </c>
       <c r="T27" t="n">
-        <v>1930.912201133363</v>
+        <v>1868.621047929947</v>
       </c>
       <c r="U27" t="n">
-        <v>1702.715194163766</v>
+        <v>1640.42404096035</v>
       </c>
       <c r="V27" t="n">
-        <v>1467.563085932024</v>
+        <v>1527.165890972907</v>
       </c>
       <c r="W27" t="n">
-        <v>1213.325729203822</v>
+        <v>1272.928534244706</v>
       </c>
       <c r="X27" t="n">
-        <v>1127.36818724259</v>
+        <v>1065.077034039173</v>
       </c>
       <c r="Y27" t="n">
-        <v>919.6078884776357</v>
+        <v>857.3167352742191</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281.1299392897158</v>
+        <v>281.1299392897157</v>
       </c>
       <c r="C28" t="n">
-        <v>234.0877146061091</v>
+        <v>234.087714606109</v>
       </c>
       <c r="D28" t="n">
-        <v>205.8650334380736</v>
+        <v>205.8650334380735</v>
       </c>
       <c r="E28" t="n">
-        <v>179.8458980999807</v>
+        <v>179.8458980999806</v>
       </c>
       <c r="F28" t="n">
-        <v>154.8499088463706</v>
+        <v>154.8499088463705</v>
       </c>
       <c r="G28" t="n">
-        <v>107.3951213803768</v>
+        <v>107.3951213803767</v>
       </c>
       <c r="H28" t="n">
-        <v>68.438264795783</v>
+        <v>68.43826479578297</v>
       </c>
       <c r="I28" t="n">
         <v>43.50957082912912</v>
       </c>
       <c r="J28" t="n">
-        <v>94.05037830986296</v>
+        <v>94.05037830986294</v>
       </c>
       <c r="K28" t="n">
         <v>230.086491405367</v>
@@ -6415,19 +6415,19 @@
         <v>1013.491086672088</v>
       </c>
       <c r="U28" t="n">
-        <v>846.1924011828497</v>
+        <v>846.1924011828493</v>
       </c>
       <c r="V28" t="n">
-        <v>713.401871221263</v>
+        <v>713.4018712212626</v>
       </c>
       <c r="W28" t="n">
-        <v>545.8786594286026</v>
+        <v>545.8786594286022</v>
       </c>
       <c r="X28" t="n">
-        <v>439.7830667748855</v>
+        <v>439.7830667748851</v>
       </c>
       <c r="Y28" t="n">
-        <v>340.8844458756553</v>
+        <v>340.8844458756551</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>863.3958174197674</v>
+        <v>863.3958174197675</v>
       </c>
       <c r="C29" t="n">
-        <v>643.3985450321774</v>
+        <v>643.3985450321775</v>
       </c>
       <c r="D29" t="n">
-        <v>584.600318142955</v>
+        <v>434.0980909782487</v>
       </c>
       <c r="E29" t="n">
-        <v>347.7773100975324</v>
+        <v>197.2750829328262</v>
       </c>
       <c r="F29" t="n">
-        <v>347.7773100975324</v>
+        <v>197.2750829328262</v>
       </c>
       <c r="G29" t="n">
-        <v>78.00083252876153</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="H29" t="n">
-        <v>78.00083252876153</v>
+        <v>43.50957082912912</v>
       </c>
       <c r="I29" t="n">
         <v>43.50957082912912</v>
       </c>
       <c r="J29" t="n">
-        <v>94.56683417855182</v>
+        <v>240.5676703647724</v>
       </c>
       <c r="K29" t="n">
-        <v>437.834077143083</v>
+        <v>583.8349133293036</v>
       </c>
       <c r="L29" t="n">
-        <v>880.8379619689262</v>
+        <v>880.8379619689263</v>
       </c>
       <c r="M29" t="n">
-        <v>1297.045729977326</v>
+        <v>1227.917625414379</v>
       </c>
       <c r="N29" t="n">
-        <v>1635.109507692129</v>
+        <v>1565.981403129182</v>
       </c>
       <c r="O29" t="n">
-        <v>1909.145908797466</v>
+        <v>1840.017804234519</v>
       </c>
       <c r="P29" t="n">
         <v>2105.355254177125</v>
@@ -6531,28 +6531,28 @@
         <v>43.50957082912912</v>
       </c>
       <c r="G30" t="n">
-        <v>43.50957082912912</v>
+        <v>43.50957082912937</v>
       </c>
       <c r="H30" t="n">
-        <v>43.50957082912912</v>
+        <v>43.50957082912937</v>
       </c>
       <c r="I30" t="n">
-        <v>43.50957082912912</v>
+        <v>43.50957082912937</v>
       </c>
       <c r="J30" t="n">
-        <v>80.22554741977177</v>
+        <v>80.22554741977203</v>
       </c>
       <c r="K30" t="n">
-        <v>269.5998425626998</v>
+        <v>269.5998425627001</v>
       </c>
       <c r="L30" t="n">
-        <v>585.6413489087472</v>
+        <v>585.6413489087474</v>
       </c>
       <c r="M30" t="n">
-        <v>1006.426101740067</v>
+        <v>1006.426101740068</v>
       </c>
       <c r="N30" t="n">
-        <v>1454.05478828218</v>
+        <v>1454.054788282181</v>
       </c>
       <c r="O30" t="n">
         <v>1797.131906854855</v>
@@ -6561,16 +6561,16 @@
         <v>2055.478473045077</v>
       </c>
       <c r="Q30" t="n">
-        <v>2175.478541456455</v>
+        <v>2175.478541456456</v>
       </c>
       <c r="R30" t="n">
-        <v>2175.478541456455</v>
+        <v>2175.478541456456</v>
       </c>
       <c r="S30" t="n">
-        <v>2158.539696803201</v>
+        <v>2009.574452250379</v>
       </c>
       <c r="T30" t="n">
-        <v>1974.082630670174</v>
+        <v>1957.983487441885</v>
       </c>
       <c r="U30" t="n">
         <v>1745.885623700577</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.900975497273</v>
+        <v>93.835763687637</v>
       </c>
       <c r="C31" t="n">
-        <v>76.93003712218777</v>
+        <v>73.86482531255183</v>
       </c>
       <c r="D31" t="n">
-        <v>75.77864226267374</v>
+        <v>72.71343045303786</v>
       </c>
       <c r="E31" t="n">
-        <v>75.77864226267374</v>
+        <v>73.74464361915497</v>
       </c>
       <c r="F31" t="n">
-        <v>75.77864226267374</v>
+        <v>75.77864226267363</v>
       </c>
       <c r="G31" t="n">
-        <v>55.39514110520142</v>
+        <v>55.39514110520136</v>
       </c>
       <c r="H31" t="n">
         <v>43.50957082912912</v>
       </c>
       <c r="I31" t="n">
-        <v>43.50957082912912</v>
+        <v>45.60952558339361</v>
       </c>
       <c r="J31" t="n">
-        <v>43.50957082912912</v>
+        <v>61.38999669909902</v>
       </c>
       <c r="K31" t="n">
-        <v>60.07741544939451</v>
+        <v>77.95784131936441</v>
       </c>
       <c r="L31" t="n">
-        <v>282.8058232432579</v>
+        <v>154.6854129270073</v>
       </c>
       <c r="M31" t="n">
-        <v>374.0934125986568</v>
+        <v>245.9730022824061</v>
       </c>
       <c r="N31" t="n">
-        <v>614.6458397250525</v>
+        <v>340.5245932225813</v>
       </c>
       <c r="O31" t="n">
-        <v>685.9632420622698</v>
+        <v>557.8428317460192</v>
       </c>
       <c r="P31" t="n">
-        <v>744.4125556744527</v>
+        <v>741.3473438648161</v>
       </c>
       <c r="Q31" t="n">
-        <v>832.9439129470818</v>
+        <v>829.8787011374453</v>
       </c>
       <c r="R31" t="n">
-        <v>818.0726426713023</v>
+        <v>815.007430861666</v>
       </c>
       <c r="S31" t="n">
-        <v>746.6682965421332</v>
+        <v>743.603084732497</v>
       </c>
       <c r="T31" t="n">
-        <v>666.8344050285165</v>
+        <v>663.7691932188802</v>
       </c>
       <c r="U31" t="n">
-        <v>526.6070058477992</v>
+        <v>523.5417940381629</v>
       </c>
       <c r="V31" t="n">
-        <v>420.887762194734</v>
+        <v>417.8225503850978</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4358367105951</v>
+        <v>277.3706249009589</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4115303653994</v>
+        <v>198.3463185557633</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.584195774691</v>
+        <v>126.518983965055</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>43.50957082912913</v>
       </c>
       <c r="I32" t="n">
-        <v>49.20466935146545</v>
+        <v>43.50957082912913</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7627530012547</v>
+        <v>94.56683417855183</v>
       </c>
       <c r="K32" t="n">
-        <v>483.0291597795654</v>
+        <v>291.8332409568625</v>
       </c>
       <c r="L32" t="n">
-        <v>780.032208419188</v>
+        <v>588.8362895964851</v>
       </c>
       <c r="M32" t="n">
-        <v>1127.11187186464</v>
+        <v>935.9159530419373</v>
       </c>
       <c r="N32" t="n">
-        <v>1465.175649579443</v>
+        <v>1273.979730756741</v>
       </c>
       <c r="O32" t="n">
-        <v>1739.212050684781</v>
+        <v>1639.971102024018</v>
       </c>
       <c r="P32" t="n">
-        <v>1935.421396064439</v>
+        <v>1836.180447403677</v>
       </c>
       <c r="Q32" t="n">
         <v>2091.804554983374</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>443.2700617137486</v>
+        <v>486.6626527468933</v>
       </c>
       <c r="C33" t="n">
-        <v>268.8170324326217</v>
+        <v>312.2096234657663</v>
       </c>
       <c r="D33" t="n">
-        <v>119.8826227713704</v>
+        <v>312.2096234657663</v>
       </c>
       <c r="E33" t="n">
-        <v>119.8826227713704</v>
+        <v>152.9721684603108</v>
       </c>
       <c r="F33" t="n">
-        <v>119.8826227713704</v>
+        <v>152.9721684603108</v>
       </c>
       <c r="G33" t="n">
-        <v>119.8826227713704</v>
+        <v>152.9721684603108</v>
       </c>
       <c r="H33" t="n">
-        <v>119.8826227713704</v>
+        <v>43.50957082912913</v>
       </c>
       <c r="I33" t="n">
         <v>43.50957082912913</v>
@@ -6807,22 +6807,22 @@
         <v>1933.518888007308</v>
       </c>
       <c r="T33" t="n">
-        <v>1744.683669633845</v>
+        <v>1788.076260666989</v>
       </c>
       <c r="U33" t="n">
-        <v>1516.486662664248</v>
+        <v>1559.879253697392</v>
       </c>
       <c r="V33" t="n">
-        <v>1281.334554432505</v>
+        <v>1324.72714546565</v>
       </c>
       <c r="W33" t="n">
-        <v>1027.097197704303</v>
+        <v>1070.489788737448</v>
       </c>
       <c r="X33" t="n">
-        <v>819.2456974987706</v>
+        <v>862.6382885319151</v>
       </c>
       <c r="Y33" t="n">
-        <v>611.4853987338167</v>
+        <v>654.8779897669613</v>
       </c>
     </row>
     <row r="34">
@@ -6856,28 +6856,28 @@
         <v>43.50957082912913</v>
       </c>
       <c r="J34" t="n">
-        <v>43.50957082912913</v>
+        <v>61.92838639841449</v>
       </c>
       <c r="K34" t="n">
-        <v>60.07741544939452</v>
+        <v>78.49623101867988</v>
       </c>
       <c r="L34" t="n">
-        <v>136.8049870570374</v>
+        <v>155.2238026263227</v>
       </c>
       <c r="M34" t="n">
-        <v>228.0925764124362</v>
+        <v>246.5113919817215</v>
       </c>
       <c r="N34" t="n">
-        <v>322.6441673526114</v>
+        <v>341.0629829218968</v>
       </c>
       <c r="O34" t="n">
-        <v>393.9615696898288</v>
+        <v>412.3803852591141</v>
       </c>
       <c r="P34" t="n">
-        <v>431.4652456224051</v>
+        <v>449.8840611916905</v>
       </c>
       <c r="Q34" t="n">
-        <v>431.4652456224051</v>
+        <v>449.8840611916905</v>
       </c>
       <c r="R34" t="n">
         <v>449.8840611916905</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.9489604294985</v>
+        <v>1082.779904802424</v>
       </c>
       <c r="C35" t="n">
-        <v>642.253681832487</v>
+        <v>903.0846262054125</v>
       </c>
       <c r="D35" t="n">
-        <v>473.2552215691368</v>
+        <v>734.0861659420623</v>
       </c>
       <c r="E35" t="n">
-        <v>276.7342073142928</v>
+        <v>537.5651516872183</v>
       </c>
       <c r="F35" t="n">
-        <v>182.0338689571304</v>
+        <v>315.846485241011</v>
       </c>
       <c r="G35" t="n">
         <v>182.0338689571304</v>
@@ -6965,22 +6965,22 @@
         <v>1806.978769073407</v>
       </c>
       <c r="T35" t="n">
-        <v>1774.206021767286</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="U35" t="n">
-        <v>1709.649241627195</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="V35" t="n">
-        <v>1567.853592627025</v>
+        <v>1665.183120073237</v>
       </c>
       <c r="W35" t="n">
-        <v>1404.352175700311</v>
+        <v>1665.183120073237</v>
       </c>
       <c r="X35" t="n">
-        <v>1220.153655782631</v>
+        <v>1480.984600155557</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.28156215022</v>
+        <v>1280.112506523146</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>441.0711406470161</v>
+        <v>559.0108257387895</v>
       </c>
       <c r="C36" t="n">
-        <v>441.0711406470161</v>
+        <v>559.0108257387895</v>
       </c>
       <c r="D36" t="n">
-        <v>292.1367309857649</v>
+        <v>410.0764160775383</v>
       </c>
       <c r="E36" t="n">
-        <v>292.1367309857649</v>
+        <v>250.8389610720828</v>
       </c>
       <c r="F36" t="n">
-        <v>145.6021730126498</v>
+        <v>250.8389610720828</v>
       </c>
       <c r="G36" t="n">
-        <v>145.6021730126498</v>
+        <v>112.5126273237094</v>
       </c>
       <c r="H36" t="n">
-        <v>36.13957538146814</v>
+        <v>112.5126273237094</v>
       </c>
       <c r="I36" t="n">
         <v>36.13957538146814</v>
@@ -7026,40 +7026,40 @@
         <v>999.0561062924064</v>
       </c>
       <c r="N36" t="n">
-        <v>1085.555015899132</v>
+        <v>1446.283351638075</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.632134471806</v>
+        <v>1548.632202883185</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.978700662028</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="Q36" t="n">
         <v>1806.978769073407</v>
       </c>
       <c r="R36" t="n">
-        <v>1730.923204830334</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="S36" t="n">
-        <v>1565.019115624258</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="T36" t="n">
-        <v>1364.462906262941</v>
+        <v>1606.422559712091</v>
       </c>
       <c r="U36" t="n">
-        <v>1136.265899293345</v>
+        <v>1378.225552742494</v>
       </c>
       <c r="V36" t="n">
-        <v>901.1137910616019</v>
+        <v>1143.073444510751</v>
       </c>
       <c r="W36" t="n">
-        <v>646.8764343334003</v>
+        <v>888.8360877825494</v>
       </c>
       <c r="X36" t="n">
-        <v>628.2921724712678</v>
+        <v>870.2518259204169</v>
       </c>
       <c r="Y36" t="n">
-        <v>609.2864776670842</v>
+        <v>727.2261627588575</v>
       </c>
     </row>
     <row r="37">
@@ -7090,7 +7090,7 @@
         <v>36.13957538146814</v>
       </c>
       <c r="I37" t="n">
-        <v>36.13957538146814</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="J37" t="n">
         <v>54.55839095075356</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>817.3119953613467</v>
+        <v>1083.83834229031</v>
       </c>
       <c r="C38" t="n">
-        <v>637.6167167643353</v>
+        <v>998.7464936997242</v>
       </c>
       <c r="D38" t="n">
-        <v>637.6167167643353</v>
+        <v>829.7480334363739</v>
       </c>
       <c r="E38" t="n">
-        <v>441.0957025094913</v>
+        <v>633.22701918153</v>
       </c>
       <c r="F38" t="n">
-        <v>219.377036063284</v>
+        <v>411.5083527353227</v>
       </c>
       <c r="G38" t="n">
         <v>182.0338689571304</v>
@@ -7199,25 +7199,25 @@
         <v>1806.978769073407</v>
       </c>
       <c r="S38" t="n">
-        <v>1802.341804005255</v>
+        <v>1806.978769073407</v>
       </c>
       <c r="T38" t="n">
-        <v>1769.569056699134</v>
+        <v>1774.206021767286</v>
       </c>
       <c r="U38" t="n">
-        <v>1705.012276559044</v>
+        <v>1774.206021767286</v>
       </c>
       <c r="V38" t="n">
-        <v>1563.216627558873</v>
+        <v>1632.410372767115</v>
       </c>
       <c r="W38" t="n">
-        <v>1399.715210632159</v>
+        <v>1468.908955840401</v>
       </c>
       <c r="X38" t="n">
-        <v>1215.51669071448</v>
+        <v>1284.710435922722</v>
       </c>
       <c r="Y38" t="n">
-        <v>1014.644597082068</v>
+        <v>1083.83834229031</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>546.307928706449</v>
+        <v>545.3626638972693</v>
       </c>
       <c r="C39" t="n">
-        <v>546.307928706449</v>
+        <v>370.9096346161423</v>
       </c>
       <c r="D39" t="n">
-        <v>397.3735190451978</v>
+        <v>221.975224954891</v>
       </c>
       <c r="E39" t="n">
-        <v>397.3735190451978</v>
+        <v>221.975224954891</v>
       </c>
       <c r="F39" t="n">
-        <v>250.8389610720828</v>
+        <v>221.975224954891</v>
       </c>
       <c r="G39" t="n">
-        <v>112.5126273237094</v>
+        <v>221.975224954891</v>
       </c>
       <c r="H39" t="n">
         <v>112.5126273237094</v>
@@ -7251,22 +7251,22 @@
         <v>36.13957538146814</v>
       </c>
       <c r="J39" t="n">
-        <v>72.8555519721108</v>
+        <v>36.13957538146814</v>
       </c>
       <c r="K39" t="n">
-        <v>262.2298471150389</v>
+        <v>36.13957538146814</v>
       </c>
       <c r="L39" t="n">
-        <v>578.2713534610862</v>
+        <v>352.1810817275155</v>
       </c>
       <c r="M39" t="n">
-        <v>999.0561062924064</v>
+        <v>772.9658345588357</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.283351638075</v>
+        <v>1205.55508431051</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.360470210749</v>
+        <v>1548.632202883185</v>
       </c>
       <c r="P39" t="n">
         <v>1806.978769073407</v>
@@ -7278,25 +7278,25 @@
         <v>1730.923204830334</v>
       </c>
       <c r="S39" t="n">
-        <v>1565.019115624258</v>
+        <v>1730.923204830334</v>
       </c>
       <c r="T39" t="n">
-        <v>1553.730144606342</v>
+        <v>1657.509033473965</v>
       </c>
       <c r="U39" t="n">
-        <v>1325.533137636745</v>
+        <v>1618.579264847768</v>
       </c>
       <c r="V39" t="n">
-        <v>1090.381029405002</v>
+        <v>1383.427156616026</v>
       </c>
       <c r="W39" t="n">
-        <v>836.1436726768006</v>
+        <v>1129.189799887824</v>
       </c>
       <c r="X39" t="n">
-        <v>733.0163261480708</v>
+        <v>921.3382996822911</v>
       </c>
       <c r="Y39" t="n">
-        <v>714.5232657265171</v>
+        <v>713.5780009173372</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1400.604278710846</v>
+        <v>36.13957538146814</v>
       </c>
       <c r="C40" t="n">
-        <v>1400.604278710846</v>
+        <v>36.13957538146814</v>
       </c>
       <c r="D40" t="n">
-        <v>1400.604278710846</v>
+        <v>36.13957538146814</v>
       </c>
       <c r="E40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="F40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="G40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="H40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="I40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="J40" t="n">
-        <v>1400.604278710846</v>
+        <v>54.55839095075356</v>
       </c>
       <c r="K40" t="n">
-        <v>1417.172123331111</v>
+        <v>71.12623557101895</v>
       </c>
       <c r="L40" t="n">
-        <v>1493.899694938754</v>
+        <v>147.8538071786618</v>
       </c>
       <c r="M40" t="n">
-        <v>1585.187284294153</v>
+        <v>239.1413965340606</v>
       </c>
       <c r="N40" t="n">
-        <v>1679.738875234328</v>
+        <v>333.6929874742358</v>
       </c>
       <c r="O40" t="n">
-        <v>1751.056277571545</v>
+        <v>405.0103898114532</v>
       </c>
       <c r="P40" t="n">
-        <v>1788.559953504122</v>
+        <v>442.5140657440296</v>
       </c>
       <c r="Q40" t="n">
-        <v>1788.559953504122</v>
+        <v>442.5140657440296</v>
       </c>
       <c r="R40" t="n">
-        <v>1806.978769073407</v>
+        <v>442.5140657440296</v>
       </c>
       <c r="S40" t="n">
-        <v>1775.876416734817</v>
+        <v>411.4117134054391</v>
       </c>
       <c r="T40" t="n">
-        <v>1736.344519011778</v>
+        <v>371.8798156824008</v>
       </c>
       <c r="U40" t="n">
-        <v>1636.41911362164</v>
+        <v>271.9544102922621</v>
       </c>
       <c r="V40" t="n">
-        <v>1571.001863759153</v>
+        <v>206.5371604297754</v>
       </c>
       <c r="W40" t="n">
-        <v>1470.851932065593</v>
+        <v>106.3872287362151</v>
       </c>
       <c r="X40" t="n">
-        <v>1432.129619510976</v>
+        <v>67.66491618159799</v>
       </c>
       <c r="Y40" t="n">
-        <v>1400.604278710846</v>
+        <v>36.13957538146814</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.1544075745824</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="C41" t="n">
-        <v>847.1544075745824</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="D41" t="n">
-        <v>610.7826672121321</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="E41" t="n">
-        <v>610.7826672121321</v>
+        <v>824.0502408868942</v>
       </c>
       <c r="F41" t="n">
-        <v>321.6907206668247</v>
+        <v>534.958294341587</v>
       </c>
       <c r="G41" t="n">
-        <v>24.84295678953245</v>
+        <v>238.1105304642947</v>
       </c>
       <c r="H41" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="I41" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J41" t="n">
-        <v>24.84295678953245</v>
+        <v>75.90022013895515</v>
       </c>
       <c r="K41" t="n">
-        <v>222.1093635678431</v>
+        <v>273.1666269172658</v>
       </c>
       <c r="L41" t="n">
-        <v>353.248257830357</v>
+        <v>570.1696755568885</v>
       </c>
       <c r="M41" t="n">
-        <v>660.6798481008211</v>
+        <v>771.9020929916271</v>
       </c>
       <c r="N41" t="n">
-        <v>968.1114383712852</v>
+        <v>771.9020929916271</v>
       </c>
       <c r="O41" t="n">
-        <v>1242.147839476622</v>
+        <v>1045.938494096964</v>
       </c>
       <c r="P41" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="Q41" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="R41" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="S41" t="n">
-        <v>1170.137594309371</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="T41" t="n">
-        <v>1098.726207591362</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="U41" t="n">
-        <v>1098.726207591362</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="V41" t="n">
-        <v>1098.726207591362</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="W41" t="n">
-        <v>1098.726207591362</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="X41" t="n">
-        <v>847.1544075745824</v>
+        <v>1087.944535240838</v>
       </c>
       <c r="Y41" t="n">
-        <v>847.1544075745824</v>
+        <v>1087.944535240838</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>414.2155071128354</v>
+        <v>183.7437242106352</v>
       </c>
       <c r="C42" t="n">
-        <v>361.6564360760086</v>
+        <v>131.1846531738084</v>
       </c>
       <c r="D42" t="n">
-        <v>334.6159846590576</v>
+        <v>104.1442017568573</v>
       </c>
       <c r="E42" t="n">
-        <v>297.2724878979023</v>
+        <v>66.80070499570201</v>
       </c>
       <c r="F42" t="n">
-        <v>272.6318881690875</v>
+        <v>42.16010526688719</v>
       </c>
       <c r="G42" t="n">
-        <v>134.3055544207141</v>
+        <v>25.72772976281404</v>
       </c>
       <c r="H42" t="n">
-        <v>24.84295678953245</v>
+        <v>25.72772976281404</v>
       </c>
       <c r="I42" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J42" t="n">
-        <v>61.55893338017511</v>
+        <v>61.55893338017512</v>
       </c>
       <c r="K42" t="n">
         <v>250.9332285231032</v>
       </c>
       <c r="L42" t="n">
-        <v>558.3648187935672</v>
+        <v>558.3648187935673</v>
       </c>
       <c r="M42" t="n">
-        <v>814.7161807947798</v>
+        <v>865.7964090640315</v>
       </c>
       <c r="N42" t="n">
         <v>1122.147771065244</v>
@@ -7509,31 +7509,31 @@
         <v>1122.147771065244</v>
       </c>
       <c r="Q42" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="R42" t="n">
-        <v>1166.09227523355</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="S42" t="n">
-        <v>1062.927616684146</v>
+        <v>1076.243750270547</v>
       </c>
       <c r="T42" t="n">
-        <v>984.2653655671302</v>
+        <v>997.5814991535304</v>
       </c>
       <c r="U42" t="n">
-        <v>877.9623168418334</v>
+        <v>891.2784504282336</v>
       </c>
       <c r="V42" t="n">
-        <v>764.7041668543909</v>
+        <v>656.1263421964909</v>
       </c>
       <c r="W42" t="n">
-        <v>632.3607683704895</v>
+        <v>401.8889854682893</v>
       </c>
       <c r="X42" t="n">
-        <v>546.4032264092569</v>
+        <v>315.9314435070567</v>
       </c>
       <c r="Y42" t="n">
-        <v>460.5368858886033</v>
+        <v>230.065102986403</v>
       </c>
     </row>
     <row r="43">
@@ -7561,25 +7561,25 @@
         <v>88.72850734078011</v>
       </c>
       <c r="H43" t="n">
-        <v>49.77165075618633</v>
+        <v>49.77165075618634</v>
       </c>
       <c r="I43" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J43" t="n">
-        <v>75.38376427026628</v>
+        <v>75.38376427026631</v>
       </c>
       <c r="K43" t="n">
         <v>211.4198773657703</v>
       </c>
       <c r="L43" t="n">
-        <v>407.6157174486518</v>
+        <v>407.6157174486516</v>
       </c>
       <c r="M43" t="n">
-        <v>618.3715752792891</v>
+        <v>618.371575279289</v>
       </c>
       <c r="N43" t="n">
-        <v>832.391434694703</v>
+        <v>832.3914346947029</v>
       </c>
       <c r="O43" t="n">
         <v>1023.177105507159</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.8555136103471</v>
+        <v>1217.295776131693</v>
       </c>
       <c r="C44" t="n">
-        <v>578.8555136103471</v>
+        <v>943.1559311270601</v>
       </c>
       <c r="D44" t="n">
-        <v>578.8555136103471</v>
+        <v>943.1559311270601</v>
       </c>
       <c r="E44" t="n">
-        <v>578.8555136103471</v>
+        <v>652.1903504645945</v>
       </c>
       <c r="F44" t="n">
-        <v>578.8555136103471</v>
+        <v>338.5166536270635</v>
       </c>
       <c r="G44" t="n">
-        <v>265.1818167728162</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="H44" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="I44" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J44" t="n">
-        <v>24.84295678953245</v>
+        <v>75.90022013895515</v>
       </c>
       <c r="K44" t="n">
-        <v>222.1093635678431</v>
+        <v>273.1666269172658</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1124122074658</v>
+        <v>570.1696755568885</v>
       </c>
       <c r="M44" t="n">
-        <v>519.1124122074658</v>
+        <v>864.5929619268283</v>
       </c>
       <c r="N44" t="n">
-        <v>771.9020929916267</v>
+        <v>1172.024552197292</v>
       </c>
       <c r="O44" t="n">
-        <v>1045.938494096964</v>
+        <v>1172.024552197292</v>
       </c>
       <c r="P44" t="n">
-        <v>1242.147839476622</v>
+        <v>1172.024552197292</v>
       </c>
       <c r="Q44" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="R44" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="S44" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="T44" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="U44" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="V44" t="n">
-        <v>1165.949341778723</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="W44" t="n">
-        <v>1165.949341778723</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="X44" t="n">
-        <v>1165.949341778723</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="Y44" t="n">
-        <v>870.6326817386902</v>
+        <v>1242.147839476623</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>332.8553084753636</v>
+        <v>332.8553084753638</v>
       </c>
       <c r="C45" t="n">
-        <v>253.2249511300154</v>
+        <v>253.2249511300155</v>
       </c>
       <c r="D45" t="n">
-        <v>199.1132134045429</v>
+        <v>199.113213404543</v>
       </c>
       <c r="E45" t="n">
-        <v>134.6984303348661</v>
+        <v>134.6984303348662</v>
       </c>
       <c r="F45" t="n">
-        <v>82.98654429752996</v>
+        <v>82.98654429753007</v>
       </c>
       <c r="G45" t="n">
-        <v>39.48288248493537</v>
+        <v>39.48288248493541</v>
       </c>
       <c r="H45" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="I45" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J45" t="n">
-        <v>61.55893338017511</v>
+        <v>61.55893338017512</v>
       </c>
       <c r="K45" t="n">
-        <v>61.55893338017511</v>
+        <v>61.55893338017512</v>
       </c>
       <c r="L45" t="n">
-        <v>368.9905236506392</v>
+        <v>368.9905236506393</v>
       </c>
       <c r="M45" t="n">
-        <v>676.4221139211033</v>
+        <v>676.4221139211036</v>
       </c>
       <c r="N45" t="n">
-        <v>814.7161807947798</v>
+        <v>983.8012732864006</v>
       </c>
       <c r="O45" t="n">
-        <v>1122.147771065244</v>
+        <v>983.8012732864006</v>
       </c>
       <c r="P45" t="n">
-        <v>1122.147771065244</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="Q45" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="R45" t="n">
-        <v>1242.147839476622</v>
+        <v>1242.147839476623</v>
       </c>
       <c r="S45" t="n">
         <v>1171.066422206325</v>
       </c>
       <c r="T45" t="n">
-        <v>1065.332884780787</v>
+        <v>1065.332884780788</v>
       </c>
       <c r="U45" t="n">
-        <v>931.9585497469691</v>
+        <v>931.9585497469694</v>
       </c>
       <c r="V45" t="n">
-        <v>791.6291134510051</v>
+        <v>791.6291134510054</v>
       </c>
       <c r="W45" t="n">
-        <v>632.2144286585823</v>
+        <v>632.2144286585825</v>
       </c>
       <c r="X45" t="n">
-        <v>519.1856003888282</v>
+        <v>519.1856003888283</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.2479735596529</v>
+        <v>406.2479735596531</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>195.7164665257869</v>
+        <v>152.5237858500213</v>
       </c>
       <c r="C46" t="n">
-        <v>121.6029555336588</v>
+        <v>151.3690108392231</v>
       </c>
       <c r="D46" t="n">
-        <v>66.30898805710177</v>
+        <v>151.3690108392231</v>
       </c>
       <c r="E46" t="n">
-        <v>66.30898805710177</v>
+        <v>151.3690108392231</v>
       </c>
       <c r="F46" t="n">
-        <v>66.30898805710177</v>
+        <v>151.3690108392231</v>
       </c>
       <c r="G46" t="n">
-        <v>66.30898805710177</v>
+        <v>76.84293706470784</v>
       </c>
       <c r="H46" t="n">
-        <v>66.30898805710177</v>
+        <v>76.84293706470784</v>
       </c>
       <c r="I46" t="n">
-        <v>24.84295678953245</v>
+        <v>24.84295678953246</v>
       </c>
       <c r="J46" t="n">
-        <v>48.8511965592844</v>
+        <v>48.85119655928438</v>
       </c>
       <c r="K46" t="n">
         <v>158.3547419438065</v>
       </c>
       <c r="L46" t="n">
-        <v>328.0180143157062</v>
+        <v>328.0180143157061</v>
       </c>
       <c r="M46" t="n">
-        <v>512.2413044353617</v>
+        <v>512.2413044353616</v>
       </c>
       <c r="N46" t="n">
-        <v>699.7285961397937</v>
+        <v>699.7285961397936</v>
       </c>
       <c r="O46" t="n">
-        <v>863.9816992412677</v>
+        <v>863.9816992412676</v>
       </c>
       <c r="P46" t="n">
-        <v>994.4210759381008</v>
+        <v>994.4210759381007</v>
       </c>
       <c r="Q46" t="n">
         <v>1029.887297788766</v>
       </c>
       <c r="R46" t="n">
-        <v>1029.887297788766</v>
+        <v>960.8734548959435</v>
       </c>
       <c r="S46" t="n">
-        <v>1029.887297788766</v>
+        <v>835.3265361497315</v>
       </c>
       <c r="T46" t="n">
-        <v>895.9108336581063</v>
+        <v>701.3500720190717</v>
       </c>
       <c r="U46" t="n">
-        <v>701.540861860346</v>
+        <v>506.9801002213114</v>
       </c>
       <c r="V46" t="n">
-        <v>541.6790455902378</v>
+        <v>347.1182839512032</v>
       </c>
       <c r="W46" t="n">
-        <v>541.6790455902378</v>
+        <v>152.5237858500213</v>
       </c>
       <c r="X46" t="n">
-        <v>408.5121666279992</v>
+        <v>152.5237858500213</v>
       </c>
       <c r="Y46" t="n">
-        <v>282.5422594202479</v>
+        <v>152.5237858500213</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.5236218898286</v>
+        <v>117.5236218898287</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>409.4649747302179</v>
+        <v>241.9254248543504</v>
       </c>
       <c r="N11" t="n">
         <v>406.4053209328536</v>
       </c>
       <c r="O11" t="n">
-        <v>213.2606313868774</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>123.6074502122315</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>51.60650050947201</v>
+        <v>362.1434603786274</v>
       </c>
       <c r="M12" t="n">
-        <v>40.6699598799795</v>
+        <v>40.66995987997952</v>
       </c>
       <c r="N12" t="n">
-        <v>335.7137880196549</v>
+        <v>146.3890184650236</v>
       </c>
       <c r="O12" t="n">
-        <v>357.8567351330825</v>
+        <v>357.8567351330826</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>88.86509742132534</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.5236218898286</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,13 +8933,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>98.92801486106259</v>
+        <v>409.4649747302179</v>
       </c>
       <c r="N14" t="n">
-        <v>351.2114729668899</v>
+        <v>265.9059653764364</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>103.9957357017987</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>73.17807020154017</v>
       </c>
       <c r="L15" t="n">
-        <v>362.1434603786273</v>
+        <v>362.0904998683572</v>
       </c>
       <c r="M15" t="n">
-        <v>159.8667924278261</v>
+        <v>40.66995987997952</v>
       </c>
       <c r="N15" t="n">
-        <v>27.1921859171768</v>
+        <v>337.7291457863321</v>
       </c>
       <c r="O15" t="n">
-        <v>357.8567351330825</v>
+        <v>357.8567351330826</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.86509742132533</v>
+        <v>88.86509742132534</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>89.00419029935566</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>114.5648218835647</v>
+        <v>478.9368781855282</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>327.5332354806903</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>57.50664117506615</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>73.17807020154017</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>292.6201742590749</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>478.9368781855283</v>
+        <v>478.9368781855282</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>75.30290265249742</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>88.86509742132534</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>114.5648218835659</v>
+        <v>478.9368781855285</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>150.7024532892907</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>88.86509742132532</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>89.00419029935564</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>73.17807020154014</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>478.9368781855285</v>
+        <v>464.1510240501814</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>75.30290265249832</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>88.86509742132532</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.5236218898286</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>250.121664674583</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>409.4649747302182</v>
+        <v>302.6981334820107</v>
       </c>
       <c r="N41" t="n">
-        <v>406.4053209328538</v>
+        <v>95.86836106369819</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>123.6074502122315</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>141.4833873474495</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>362.1434603786276</v>
+        <v>362.1434603786277</v>
       </c>
       <c r="M42" t="n">
-        <v>299.610729578174</v>
+        <v>351.2069197491352</v>
       </c>
       <c r="N42" t="n">
-        <v>337.7291457863324</v>
+        <v>286.1329556153715</v>
       </c>
       <c r="O42" t="n">
         <v>47.31977526392717</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.5236218898286</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,19 +11303,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>98.92801486106256</v>
+        <v>396.3252738205977</v>
       </c>
       <c r="N44" t="n">
-        <v>351.2114729668909</v>
+        <v>406.4053209328539</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>103.9957357017987</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>123.6074502122315</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.4833873474495</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,22 +11379,22 @@
         <v>73.17807020154014</v>
       </c>
       <c r="L45" t="n">
-        <v>362.1434603786276</v>
+        <v>362.1434603786277</v>
       </c>
       <c r="M45" t="n">
-        <v>351.2069197491351</v>
+        <v>351.2069197491352</v>
       </c>
       <c r="N45" t="n">
-        <v>166.883162557254</v>
+        <v>337.6761852760627</v>
       </c>
       <c r="O45" t="n">
-        <v>357.8567351330828</v>
+        <v>47.31977526392717</v>
       </c>
       <c r="P45" t="n">
-        <v>57.50664117506612</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>88.86509742132532</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>262.0588230016234</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.0080229588258</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.2553514104046</v>
       </c>
       <c r="F11" t="n">
-        <v>286.2010270798542</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>293.8792862385193</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>211.1348979380146</v>
+        <v>211.1348979380147</v>
       </c>
       <c r="I11" t="n">
-        <v>60.94692252807235</v>
+        <v>60.94692252807238</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.29014271557924</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>99.1445671311689</v>
+        <v>99.14456713116891</v>
       </c>
       <c r="U11" t="n">
         <v>130.6107596367986</v>
@@ -23318,10 +23318,10 @@
         <v>207.0772398082777</v>
       </c>
       <c r="W11" t="n">
-        <v>25.35418667534208</v>
+        <v>168.4585273550529</v>
       </c>
       <c r="X11" t="n">
-        <v>249.0560820166118</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>265.5629199941964</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>262.0588230016234</v>
       </c>
       <c r="C14" t="n">
-        <v>77.39921567176876</v>
+        <v>244.5978731091504</v>
       </c>
       <c r="D14" t="n">
-        <v>234.0080229588257</v>
+        <v>234.0080229588258</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>286.2010270798542</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>293.8792862385193</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>211.1348979380146</v>
+        <v>211.1348979380147</v>
       </c>
       <c r="I14" t="n">
-        <v>60.94692252807235</v>
+        <v>60.94692252807238</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.29014271557924</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>99.1445671311689</v>
+        <v>13.71578052358608</v>
       </c>
       <c r="U14" t="n">
         <v>130.6107596367986</v>
       </c>
       <c r="V14" t="n">
-        <v>207.0772398082777</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>228.5659500555558</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249.0560820166118</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>265.5629199941964</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>138.5923007980497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>145.479527991499</v>
+        <v>239.9038148747711</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>157.1594265742664</v>
       </c>
       <c r="I17" t="n">
-        <v>6.971451164324169</v>
+        <v>6.971451164324119</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.31467135183106</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>45.16909576742071</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>153.1017684445295</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>174.5904786918076</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>46.76214666285341</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>180.0325515950775</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>232.225555716106</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>131.3280068377</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.971451164324169</v>
+        <v>6.971451164324119</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>76.63528827305042</v>
+        <v>76.63528827305036</v>
       </c>
       <c r="V20" t="n">
-        <v>153.1017684445295</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>174.5904786918076</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24221,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>157.1594265742664</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.971451164324119</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24257,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.16909576742071</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>139.9394184779561</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>20.97763650678564</v>
       </c>
     </row>
     <row r="24">
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>234.0080229588257</v>
+        <v>201.7542001669343</v>
       </c>
       <c r="E26" t="n">
-        <v>261.2553514104046</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.3077813782707</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>293.8792862385193</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.29014271557924</v>
+        <v>71.29014271557921</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24500,16 +24500,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>207.0772398082777</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>249.0560820166118</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>265.5629199941964</v>
       </c>
     </row>
     <row r="27">
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>148.9972048930593</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>259.400453634418</v>
+        <v>259.4004536344179</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>114.8508558104229</v>
       </c>
       <c r="H29" t="n">
-        <v>184.3343244925784</v>
+        <v>184.3343244925783</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.14634908263604</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>125.7481448081544</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>227.1797389404103</v>
+        <v>94.70524881936851</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25205,16 +25205,16 @@
         <v>4.590595417470198</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>32.44501983305986</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>63.91121233868957</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>161.8664027574468</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>195.3592757035143</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>93.65739570636084</v>
       </c>
       <c r="D38" t="n">
-        <v>167.3084756607167</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>190.2100035053182</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.590595417470198</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>63.91121233868957</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>244.5978731091503</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>234.0080229588257</v>
       </c>
       <c r="E41" t="n">
-        <v>261.2553514104046</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>211.1348979380146</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>60.94692252807235</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>71.29014271557924</v>
       </c>
       <c r="T41" t="n">
-        <v>28.44729428034022</v>
+        <v>99.1445671311689</v>
       </c>
       <c r="U41" t="n">
         <v>130.6107596367986</v>
       </c>
       <c r="V41" t="n">
-        <v>207.0772398082777</v>
+        <v>54.41596861485095</v>
       </c>
       <c r="W41" t="n">
         <v>228.5659500555558</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>249.0560820166118</v>
       </c>
       <c r="Y41" t="n">
         <v>265.5629199941964</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>264.255853735579</v>
       </c>
       <c r="C44" t="n">
-        <v>271.3984465545866</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>260.808596404262</v>
+        <v>260.8085964042621</v>
       </c>
       <c r="E44" t="n">
-        <v>288.0559248558408</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>313.0016005252905</v>
+        <v>2.464640656134804</v>
       </c>
       <c r="G44" t="n">
-        <v>10.14289981479999</v>
+        <v>10.14289981479993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>237.9354713834509</v>
       </c>
       <c r="I44" t="n">
-        <v>87.74749597350861</v>
+        <v>87.74749597350863</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.980942487906269</v>
+        <v>8.980942487906297</v>
       </c>
       <c r="S44" t="n">
-        <v>98.09071616101549</v>
+        <v>98.09071616101552</v>
       </c>
       <c r="T44" t="n">
         <v>125.9451405766052</v>
@@ -25922,7 +25922,7 @@
         <v>157.4113330822349</v>
       </c>
       <c r="V44" t="n">
-        <v>158.4413005327935</v>
+        <v>233.877813253714</v>
       </c>
       <c r="W44" t="n">
         <v>255.3665235009921</v>
@@ -25931,7 +25931,7 @@
         <v>275.8566554620481</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>292.3634934396326</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>85.95753496551637</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.22914862151669</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>54.74102780179143</v>
       </c>
       <c r="E46" t="n">
-        <v>52.55951743014822</v>
+        <v>52.55951743014825</v>
       </c>
       <c r="F46" t="n">
-        <v>51.54660280651029</v>
+        <v>51.54660280651032</v>
       </c>
       <c r="G46" t="n">
-        <v>73.78081303677011</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.36786146418409</v>
+        <v>65.36786146418412</v>
       </c>
       <c r="I46" t="n">
-        <v>10.42860951752997</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>68.32370446389415</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>124.2914495587499</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>192.64855312017</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>131.8352101726162</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>124.7102081356739</v>
       </c>
     </row>
   </sheetData>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>714807.336377979</v>
+        <v>714807.3363779793</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>562793.9995990187</v>
+        <v>562793.9995990189</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>819276.3387170385</v>
+      </c>
+      <c r="C2" t="n">
         <v>819276.3387170383</v>
-      </c>
-      <c r="C2" t="n">
-        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170383</v>
@@ -26323,37 +26323,37 @@
         <v>669781.2305359935</v>
       </c>
       <c r="F2" t="n">
-        <v>669781.2305359932</v>
+        <v>669781.2305359935</v>
       </c>
       <c r="G2" t="n">
-        <v>777848.6611887357</v>
+        <v>777848.6611887355</v>
       </c>
       <c r="H2" t="n">
         <v>777848.6611887355</v>
       </c>
       <c r="I2" t="n">
-        <v>806307.1321303515</v>
+        <v>806307.132130352</v>
       </c>
       <c r="J2" t="n">
         <v>741860.4193220359</v>
       </c>
       <c r="K2" t="n">
-        <v>773860.3040158877</v>
+        <v>773860.3040158876</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642839</v>
       </c>
       <c r="M2" t="n">
-        <v>792583.2989226673</v>
+        <v>792583.2989226675</v>
       </c>
       <c r="N2" t="n">
-        <v>792583.2989226674</v>
+        <v>792583.2989226676</v>
       </c>
       <c r="O2" t="n">
-        <v>669781.2305359941</v>
+        <v>669781.2305359936</v>
       </c>
       <c r="P2" t="n">
-        <v>621731.7321465536</v>
+        <v>621731.7321465539</v>
       </c>
     </row>
     <row r="3">
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81883.29842563221</v>
+        <v>81883.29842563227</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24497.95699296825</v>
+        <v>24497.95699296827</v>
       </c>
       <c r="J3" t="n">
         <v>53359.63783848719</v>
       </c>
       <c r="K3" t="n">
-        <v>21440.45875634901</v>
+        <v>21440.45875634902</v>
       </c>
       <c r="L3" t="n">
         <v>75099.55617313673</v>
       </c>
       <c r="M3" t="n">
-        <v>54429.14822799655</v>
+        <v>54429.14822799658</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>257806.7254439941</v>
+        <v>258807.7022407262</v>
       </c>
       <c r="F4" t="n">
-        <v>257806.7254439941</v>
+        <v>258807.7022407261</v>
       </c>
       <c r="G4" t="n">
-        <v>304835.1433109467</v>
+        <v>306083.7799111433</v>
       </c>
       <c r="H4" t="n">
-        <v>304835.1433109468</v>
+        <v>306083.7799111432</v>
       </c>
       <c r="I4" t="n">
-        <v>318179.8681368468</v>
+        <v>319484.6586860864</v>
       </c>
       <c r="J4" t="n">
-        <v>281618.9099652512</v>
+        <v>282923.7005144908</v>
       </c>
       <c r="K4" t="n">
-        <v>299750.0166865428</v>
+        <v>301054.8072357824</v>
       </c>
       <c r="L4" t="n">
-        <v>326560.2382726502</v>
+        <v>327865.0288218897</v>
       </c>
       <c r="M4" t="n">
-        <v>313215.5134467501</v>
+        <v>314464.1500469466</v>
       </c>
       <c r="N4" t="n">
-        <v>313215.5134467501</v>
+        <v>314464.1500469467</v>
       </c>
       <c r="O4" t="n">
-        <v>257806.7254439941</v>
+        <v>258807.7022407262</v>
       </c>
       <c r="P4" t="n">
-        <v>230315.4888626468</v>
+        <v>231316.4656593788</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>51808.5288377823</v>
       </c>
       <c r="J5" t="n">
-        <v>47270.86493570336</v>
+        <v>47270.86493570335</v>
       </c>
       <c r="K5" t="n">
         <v>49523.96234468774</v>
@@ -26506,10 +26506,10 @@
         <v>47277.03263728574</v>
       </c>
       <c r="O5" t="n">
-        <v>33084.23826560989</v>
+        <v>33084.2382656099</v>
       </c>
       <c r="P5" t="n">
-        <v>30831.14085662551</v>
+        <v>30831.14085662552</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366281.6168701358</v>
+        <v>365500.9698275073</v>
       </c>
       <c r="C6" t="n">
-        <v>366281.616870136</v>
+        <v>365500.9698275071</v>
       </c>
       <c r="D6" t="n">
-        <v>366281.6168701358</v>
+        <v>365500.9698275071</v>
       </c>
       <c r="E6" t="n">
-        <v>40059.11175438257</v>
+        <v>39058.13495765058</v>
       </c>
       <c r="F6" t="n">
-        <v>378890.2668263892</v>
+        <v>377889.2900296575</v>
       </c>
       <c r="G6" t="n">
-        <v>344922.8871545969</v>
+        <v>343674.2505544</v>
       </c>
       <c r="H6" t="n">
-        <v>426806.1855802288</v>
+        <v>425557.5489800323</v>
       </c>
       <c r="I6" t="n">
-        <v>411820.7781627543</v>
+        <v>410515.9876135151</v>
       </c>
       <c r="J6" t="n">
-        <v>359611.0065825942</v>
+        <v>358306.2160333546</v>
       </c>
       <c r="K6" t="n">
-        <v>403145.8662283081</v>
+        <v>401841.0756790684</v>
       </c>
       <c r="L6" t="n">
-        <v>366503.7462409889</v>
+        <v>365198.9556917493</v>
       </c>
       <c r="M6" t="n">
-        <v>377661.6046106349</v>
+        <v>376412.9680104386</v>
       </c>
       <c r="N6" t="n">
-        <v>432090.7528386315</v>
+        <v>430842.1162384353</v>
       </c>
       <c r="O6" t="n">
-        <v>378890.2668263901</v>
+        <v>377889.2900296575</v>
       </c>
       <c r="P6" t="n">
-        <v>360585.1024272813</v>
+        <v>359584.1256305496</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>120.6750186618572</v>
       </c>
       <c r="P2" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="G3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="H3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="I3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="J3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="K3" t="n">
         <v>186.1726129211722</v>
@@ -26802,10 +26802,10 @@
         <v>310.5369598691553</v>
       </c>
       <c r="G4" t="n">
-        <v>451.7446922683515</v>
+        <v>451.7446922683514</v>
       </c>
       <c r="H4" t="n">
-        <v>451.7446922683515</v>
+        <v>451.7446922683514</v>
       </c>
       <c r="I4" t="n">
         <v>543.8696353641139</v>
@@ -26826,10 +26826,10 @@
         <v>451.7446922683517</v>
       </c>
       <c r="O4" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="P4" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.97547136374818</v>
+        <v>53.97547136374826</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>66.699547298109</v>
       </c>
       <c r="K2" t="n">
-        <v>26.80057344543626</v>
+        <v>26.80057344543628</v>
       </c>
       <c r="L2" t="n">
-        <v>93.87444521642092</v>
+        <v>93.87444521642091</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186.1726129211722</v>
+        <v>186.1726129211721</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>92.12494309576249</v>
+        <v>92.12494309576255</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>218.4120167733927</v>
+        <v>218.4120167733928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.97547136374818</v>
+        <v>53.97547136374826</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>66.699547298109</v>
       </c>
       <c r="P2" t="n">
-        <v>26.80057344543626</v>
+        <v>26.80057344543628</v>
       </c>
     </row>
     <row r="3">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>120.6750186618572</v>
@@ -28175,16 +28175,16 @@
         <v>120.6750186618572</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="F12" t="n">
         <v>120.6750186618572</v>
       </c>
       <c r="G12" t="n">
-        <v>74.41908335709479</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="H12" t="n">
-        <v>108.3679716548698</v>
+        <v>107.4920464113228</v>
       </c>
       <c r="I12" t="n">
         <v>75.60932142281884</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>75.29500860064206</v>
       </c>
       <c r="S12" t="n">
         <v>120.6750186618572</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="U12" t="n">
         <v>120.6750186618572</v>
       </c>
       <c r="V12" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>120.6750186618572</v>
@@ -28235,7 +28235,7 @@
         <v>120.6750186618572</v>
       </c>
       <c r="Y12" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28409,13 +28409,13 @@
         <v>120.6750186618572</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="F15" t="n">
-        <v>119.7990934183098</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>120.6750186618572</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>75.29500860064205</v>
+        <v>75.29500860064206</v>
       </c>
       <c r="S15" t="n">
         <v>120.6750186618572</v>
       </c>
       <c r="T15" t="n">
-        <v>120.6750186618572</v>
+        <v>119.7990934183099</v>
       </c>
       <c r="U15" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>120.6750186618572</v>
@@ -28472,7 +28472,7 @@
         <v>120.6750186618572</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
     </row>
     <row r="16">
@@ -28518,7 +28518,7 @@
         <v>120.6750186618572</v>
       </c>
       <c r="N16" t="n">
-        <v>120.675018661857</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="O16" t="n">
         <v>120.6750186618572</v>
@@ -28527,7 +28527,7 @@
         <v>120.6750186618572</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.6750186618572</v>
+        <v>120.6750186618577</v>
       </c>
       <c r="R16" t="n">
         <v>120.6750186618572</v>
@@ -28646,10 +28646,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -28661,7 +28661,7 @@
         <v>108.3679716548698</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>75.60932142281884</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.29500860064205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T18" t="n">
-        <v>146.3821860787299</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>112.2624809369721</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28737,19 +28737,19 @@
         <v>167.6552582531911</v>
       </c>
       <c r="H19" t="n">
-        <v>174.6504900256054</v>
+        <v>159.2423066806051</v>
       </c>
       <c r="I19" t="n">
         <v>145.3544256888445</v>
       </c>
       <c r="J19" t="n">
-        <v>168.9840577477557</v>
+        <v>69.62369797424728</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>114.7685431185084</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28880,25 +28880,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>44.97378369003486</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9430704108896</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>108.3679716548698</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>75.60932142281884</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.29500860064205</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="X21" t="n">
-        <v>174.6504900256054</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>80.09966770799456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28965,7 +28965,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>174.6504900256054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28980,7 +28980,7 @@
         <v>145.3544256888445</v>
       </c>
       <c r="J22" t="n">
-        <v>69.62369797424728</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>144.60199444007</v>
+        <v>67.79172976774763</v>
       </c>
       <c r="R22" t="n">
         <v>162.1981496803151</v>
@@ -29074,16 +29074,16 @@
         <v>174.6504900256054</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>118.3319601131057</v>
       </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>174.6504900256054</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>118.3319601131053</v>
       </c>
       <c r="S23" t="n">
         <v>174.6504900256054</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.9430704108896</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.67764591570381</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="U24" t="n">
-        <v>174.6504900256054</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>174.6504900256054</v>
       </c>
       <c r="W24" t="n">
-        <v>174.6504900256054</v>
+        <v>73.38506553041933</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29196,28 +29196,28 @@
         <v>174.6504900256054</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6552582531911</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="H25" t="n">
-        <v>159.2423066806051</v>
+        <v>174.6504900256054</v>
       </c>
       <c r="I25" t="n">
         <v>145.3544256888445</v>
       </c>
       <c r="J25" t="n">
-        <v>69.62369797424726</v>
+        <v>97.13918766665279</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>172.818521819106</v>
+        <v>58.04997870059739</v>
       </c>
       <c r="R25" t="n">
         <v>162.1981496803151</v>
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,10 +29317,10 @@
         <v>120.6750186618572</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>105.6078841787441</v>
+        <v>105.6078841787446</v>
       </c>
       <c r="S26" t="n">
         <v>120.6750186618572</v>
@@ -29354,70 +29354,70 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>120.6750186618572</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
+        <v>108.3679716548698</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75.60932142281884</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.62676692925989</v>
+      </c>
+      <c r="S27" t="n">
         <v>120.6750186618572</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.634032744449172</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>75.29500860064205</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>120.6750186618572</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29533,16 +29533,16 @@
         <v>147.4755921072935</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>147.4755921072935</v>
       </c>
       <c r="K29" t="n">
         <v>147.4755921072935</v>
       </c>
       <c r="L29" t="n">
-        <v>147.4755921072935</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>69.82636824540157</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>69.82636824540145</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29639,13 +29639,13 @@
         <v>75.29500860064205</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>147.4755921072935</v>
       </c>
-      <c r="T30" t="n">
-        <v>15.93815179600668</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>15.9381517960062</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29676,10 +29676,10 @@
         <v>147.4755921072935</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>147.4755921072935</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4755921072935</v>
       </c>
       <c r="G31" t="n">
         <v>147.4755921072935</v>
@@ -29688,28 +29688,28 @@
         <v>147.4755921072935</v>
       </c>
       <c r="I31" t="n">
-        <v>145.3544256888445</v>
+        <v>147.4755921072935</v>
       </c>
       <c r="J31" t="n">
-        <v>69.62369797424726</v>
+        <v>85.56356778809112</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>147.4755921072935</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>147.4755921072935</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>21.15720977738032</v>
       </c>
       <c r="Q31" t="n">
         <v>147.4755921072935</v>
@@ -29767,31 +29767,31 @@
         <v>187.3745659599662</v>
       </c>
       <c r="I32" t="n">
+        <v>181.6219411899295</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>92.88380824438445</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>187.3745659599662</v>
-      </c>
-      <c r="J32" t="n">
-        <v>187.3745659599662</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>87.13118347434778</v>
       </c>
       <c r="R32" t="n">
         <v>187.3745659599662</v>
@@ -29831,10 +29831,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29843,10 +29843,10 @@
         <v>136.9430704108896</v>
       </c>
       <c r="H33" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>75.60932142281882</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>11.60378107797476</v>
+        <v>54.56244620078783</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>145.3544256888445</v>
       </c>
       <c r="J34" t="n">
-        <v>69.62369797424726</v>
+        <v>88.22856218564661</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>58.04997870059738</v>
       </c>
       <c r="R34" t="n">
-        <v>180.8030138917145</v>
+        <v>162.1981496803151</v>
       </c>
       <c r="S34" t="n">
         <v>187.3745659599662</v>
@@ -30071,19 +30071,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9430704108896</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.3679716548698</v>
       </c>
       <c r="I36" t="n">
-        <v>75.60932142281882</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.29500860064205</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>187.3745659599662</v>
       </c>
       <c r="Y36" t="n">
-        <v>186.8670579211626</v>
+        <v>64.08728924736062</v>
       </c>
     </row>
     <row r="37">
@@ -30162,10 +30162,10 @@
         <v>159.2423066806051</v>
       </c>
       <c r="I37" t="n">
-        <v>145.3544256888445</v>
+        <v>163.959289900244</v>
       </c>
       <c r="J37" t="n">
-        <v>88.22856218564668</v>
+        <v>69.62369797424726</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.9430704108896</v>
       </c>
       <c r="H39" t="n">
-        <v>108.3679716548698</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30350,14 +30350,14 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>164.2450483140155</v>
       </c>
       <c r="T39" t="n">
+        <v>125.8706176248976</v>
+      </c>
+      <c r="U39" t="n">
         <v>187.3745659599662</v>
       </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>103.6769121400349</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.3745659599662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>165.0388268579686</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30426,7 +30426,7 @@
         <v>58.04997870059738</v>
       </c>
       <c r="R40" t="n">
-        <v>180.8030138917144</v>
+        <v>162.1981496803151</v>
       </c>
       <c r="S40" t="n">
         <v>187.3745659599662</v>
@@ -30551,13 +30551,13 @@
         <v>120.6750186618572</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>120.6750186618572</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.3679716548698</v>
       </c>
       <c r="I42" t="n">
-        <v>75.60932142281882</v>
+        <v>74.73339617927006</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>75.29500860064205</v>
       </c>
       <c r="S42" t="n">
-        <v>62.11203635010595</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>120.6750186618572</v>
@@ -30596,10 +30596,10 @@
         <v>120.6750186618572</v>
       </c>
       <c r="V42" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>120.6750186618572</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>120.6750186618572</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="C44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="D44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="E44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="F44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="G44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="H44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="I44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="S44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="T44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="U44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="V44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="W44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="X44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="C45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="D45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="E45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="F45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="G45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="H45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="I45" t="n">
         <v>75.60932142281882</v>
@@ -30824,25 +30824,25 @@
         <v>75.29500860064205</v>
       </c>
       <c r="S45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="T45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="U45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="V45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="W45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="X45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="Y45" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="C46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="D46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="E46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="F46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="G46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="H46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="I46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="J46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="K46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="L46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="M46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="N46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="O46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="P46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="Q46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="R46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="S46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="T46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="U46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="V46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="W46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="X46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.87444521642095</v>
+        <v>93.87444521642092</v>
       </c>
     </row>
   </sheetData>
@@ -31750,19 +31750,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7484326147584806</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H11" t="n">
-        <v>7.664885515895291</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I11" t="n">
-        <v>28.85394838047635</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J11" t="n">
-        <v>63.52228263685765</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K11" t="n">
-        <v>95.20343521958415</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L11" t="n">
         <v>118.108279853499</v>
@@ -31780,10 +31780,10 @@
         <v>107.625545543038</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.82230252699992</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R11" t="n">
-        <v>47.01373023682245</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S11" t="n">
         <v>17.05490820880889</v>
@@ -31792,7 +31792,7 @@
         <v>3.27626377110525</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05987460918067843</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>64.66336877281883</v>
       </c>
       <c r="L12" t="n">
-        <v>86.94787927040217</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M12" t="n">
         <v>101.4640740420388</v>
@@ -31853,19 +31853,19 @@
         <v>104.1495261661565</v>
       </c>
       <c r="O12" t="n">
-        <v>95.27646918051724</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P12" t="n">
-        <v>76.46776623926411</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.11667666469619</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R12" t="n">
         <v>24.86282555200108</v>
       </c>
       <c r="S12" t="n">
-        <v>7.438122789822299</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T12" t="n">
         <v>1.614081427118464</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3357211052676875</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H13" t="n">
-        <v>2.984865826834533</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I13" t="n">
         <v>10.09604923841373</v>
@@ -31920,31 +31920,31 @@
         <v>23.7354821424255</v>
       </c>
       <c r="K13" t="n">
-        <v>39.0046884120095</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L13" t="n">
-        <v>49.91257232316148</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M13" t="n">
-        <v>52.62580925573395</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N13" t="n">
-        <v>51.37448513609989</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O13" t="n">
-        <v>47.4526522245637</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P13" t="n">
         <v>40.60394167710284</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.112064551097</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R13" t="n">
         <v>15.09524169685438</v>
       </c>
       <c r="S13" t="n">
-        <v>5.850703261801424</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T13" t="n">
         <v>1.434444722507392</v>
@@ -31987,19 +31987,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7484326147584806</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H14" t="n">
-        <v>7.664885515895291</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I14" t="n">
-        <v>28.85394838047635</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J14" t="n">
-        <v>63.52228263685765</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K14" t="n">
-        <v>95.20343521958415</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L14" t="n">
         <v>118.108279853499</v>
@@ -32017,10 +32017,10 @@
         <v>107.625545543038</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.82230252699992</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R14" t="n">
-        <v>47.01373023682245</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S14" t="n">
         <v>17.05490820880889</v>
@@ -32029,7 +32029,7 @@
         <v>3.27626377110525</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05987460918067843</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>64.66336877281883</v>
       </c>
       <c r="L15" t="n">
-        <v>86.94787927040217</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M15" t="n">
         <v>101.4640740420388</v>
@@ -32090,19 +32090,19 @@
         <v>104.1495261661565</v>
       </c>
       <c r="O15" t="n">
-        <v>95.27646918051724</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P15" t="n">
-        <v>76.46776623926411</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.11667666469619</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R15" t="n">
         <v>24.86282555200108</v>
       </c>
       <c r="S15" t="n">
-        <v>7.438122789822299</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T15" t="n">
         <v>1.614081427118464</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3357211052676875</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H16" t="n">
-        <v>2.984865826834533</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I16" t="n">
         <v>10.09604923841373</v>
@@ -32157,31 +32157,31 @@
         <v>23.7354821424255</v>
       </c>
       <c r="K16" t="n">
-        <v>39.0046884120095</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L16" t="n">
-        <v>49.91257232316148</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M16" t="n">
-        <v>52.62580925573395</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N16" t="n">
-        <v>51.37448513609989</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O16" t="n">
-        <v>47.4526522245637</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P16" t="n">
         <v>40.60394167710284</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.112064551097</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R16" t="n">
         <v>15.09524169685438</v>
       </c>
       <c r="S16" t="n">
-        <v>5.850703261801424</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T16" t="n">
         <v>1.434444722507392</v>
@@ -32224,19 +32224,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7484326147584806</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H17" t="n">
-        <v>7.664885515895291</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I17" t="n">
-        <v>28.85394838047635</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J17" t="n">
-        <v>63.52228263685765</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K17" t="n">
-        <v>95.20343521958415</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L17" t="n">
         <v>118.108279853499</v>
@@ -32254,10 +32254,10 @@
         <v>107.625545543038</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.82230252699992</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R17" t="n">
-        <v>47.01373023682245</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S17" t="n">
         <v>17.05490820880889</v>
@@ -32266,7 +32266,7 @@
         <v>3.27626377110525</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05987460918067843</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>64.66336877281883</v>
       </c>
       <c r="L18" t="n">
-        <v>86.94787927040217</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M18" t="n">
         <v>101.4640740420388</v>
@@ -32327,19 +32327,19 @@
         <v>104.1495261661565</v>
       </c>
       <c r="O18" t="n">
-        <v>95.27646918051724</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P18" t="n">
-        <v>76.46776623926411</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.11667666469619</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R18" t="n">
         <v>24.86282555200108</v>
       </c>
       <c r="S18" t="n">
-        <v>7.438122789822299</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T18" t="n">
         <v>1.614081427118464</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3357211052676875</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H19" t="n">
-        <v>2.984865826834533</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I19" t="n">
         <v>10.09604923841373</v>
@@ -32394,31 +32394,31 @@
         <v>23.7354821424255</v>
       </c>
       <c r="K19" t="n">
-        <v>39.0046884120095</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L19" t="n">
-        <v>49.91257232316148</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M19" t="n">
-        <v>52.62580925573395</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N19" t="n">
-        <v>51.37448513609989</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O19" t="n">
-        <v>47.4526522245637</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P19" t="n">
         <v>40.60394167710284</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.112064551097</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R19" t="n">
         <v>15.09524169685438</v>
       </c>
       <c r="S19" t="n">
-        <v>5.850703261801424</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T19" t="n">
         <v>1.434444722507392</v>
@@ -32461,19 +32461,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7484326147584806</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H20" t="n">
-        <v>7.664885515895291</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I20" t="n">
-        <v>28.85394838047635</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J20" t="n">
-        <v>63.52228263685765</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K20" t="n">
-        <v>95.20343521958415</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L20" t="n">
         <v>118.108279853499</v>
@@ -32491,10 +32491,10 @@
         <v>107.625545543038</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.82230252699992</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R20" t="n">
-        <v>47.01373023682245</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S20" t="n">
         <v>17.05490820880889</v>
@@ -32503,7 +32503,7 @@
         <v>3.27626377110525</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05987460918067843</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>64.66336877281883</v>
       </c>
       <c r="L21" t="n">
-        <v>86.94787927040217</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M21" t="n">
         <v>101.4640740420388</v>
@@ -32564,19 +32564,19 @@
         <v>104.1495261661565</v>
       </c>
       <c r="O21" t="n">
-        <v>95.27646918051724</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P21" t="n">
-        <v>76.46776623926411</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.11667666469619</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R21" t="n">
         <v>24.86282555200108</v>
       </c>
       <c r="S21" t="n">
-        <v>7.438122789822299</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T21" t="n">
         <v>1.614081427118464</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3357211052676875</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H22" t="n">
-        <v>2.984865826834533</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I22" t="n">
         <v>10.09604923841373</v>
@@ -32631,31 +32631,31 @@
         <v>23.7354821424255</v>
       </c>
       <c r="K22" t="n">
-        <v>39.0046884120095</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L22" t="n">
-        <v>49.91257232316148</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M22" t="n">
-        <v>52.62580925573395</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N22" t="n">
-        <v>51.37448513609989</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O22" t="n">
-        <v>47.4526522245637</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P22" t="n">
         <v>40.60394167710284</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.112064551097</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R22" t="n">
         <v>15.09524169685438</v>
       </c>
       <c r="S22" t="n">
-        <v>5.850703261801424</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T22" t="n">
         <v>1.434444722507392</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7484326147584808</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H23" t="n">
-        <v>7.664885515895293</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I23" t="n">
-        <v>28.85394838047636</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J23" t="n">
-        <v>63.52228263685767</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K23" t="n">
-        <v>95.20343521958418</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L23" t="n">
-        <v>118.1082798534991</v>
+        <v>118.108279853499</v>
       </c>
       <c r="M23" t="n">
-        <v>131.4182183662102</v>
+        <v>131.4182183662101</v>
       </c>
       <c r="N23" t="n">
         <v>133.5447025328927</v>
       </c>
       <c r="O23" t="n">
-        <v>126.1024757198881</v>
+        <v>126.102475719888</v>
       </c>
       <c r="P23" t="n">
-        <v>107.6255455430381</v>
+        <v>107.625545543038</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.82230252699995</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R23" t="n">
-        <v>47.01373023682246</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S23" t="n">
-        <v>17.0549082088089</v>
+        <v>17.05490820880889</v>
       </c>
       <c r="T23" t="n">
-        <v>3.276263771105251</v>
+        <v>3.27626377110525</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05987460918067845</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.400446752321012</v>
+        <v>0.4004467523210118</v>
       </c>
       <c r="H24" t="n">
-        <v>3.867472581626616</v>
+        <v>3.867472581626615</v>
       </c>
       <c r="I24" t="n">
-        <v>13.78731142859625</v>
+        <v>13.78731142859624</v>
       </c>
       <c r="J24" t="n">
-        <v>37.83343636731105</v>
+        <v>37.83343636731104</v>
       </c>
       <c r="K24" t="n">
-        <v>64.66336877281886</v>
+        <v>64.66336877281883</v>
       </c>
       <c r="L24" t="n">
-        <v>86.9478792704022</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M24" t="n">
-        <v>101.4640740420389</v>
+        <v>101.4640740420388</v>
       </c>
       <c r="N24" t="n">
         <v>104.1495261661565</v>
       </c>
       <c r="O24" t="n">
-        <v>95.27646918051727</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P24" t="n">
-        <v>76.46776623926412</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.1166766646962</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R24" t="n">
-        <v>24.86282555200109</v>
+        <v>24.86282555200108</v>
       </c>
       <c r="S24" t="n">
-        <v>7.438122789822301</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T24" t="n">
         <v>1.614081427118464</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0263451810737508</v>
+        <v>0.02634518107375079</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3357211052676876</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H25" t="n">
-        <v>2.984865826834534</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I25" t="n">
-        <v>10.09604923841374</v>
+        <v>10.09604923841373</v>
       </c>
       <c r="J25" t="n">
-        <v>23.73548214242551</v>
+        <v>23.7354821424255</v>
       </c>
       <c r="K25" t="n">
-        <v>39.00468841200951</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L25" t="n">
-        <v>49.91257232316149</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M25" t="n">
-        <v>52.62580925573397</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N25" t="n">
-        <v>51.3744851360999</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O25" t="n">
-        <v>47.45265222456371</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P25" t="n">
-        <v>40.60394167710285</v>
+        <v>40.60394167710284</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.11206455109701</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R25" t="n">
-        <v>15.09524169685439</v>
+        <v>15.09524169685438</v>
       </c>
       <c r="S25" t="n">
-        <v>5.850703261801426</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T25" t="n">
         <v>1.434444722507392</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01831206028732844</v>
+        <v>0.01831206028732843</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7484326147584808</v>
+        <v>0.7484326147584804</v>
       </c>
       <c r="H26" t="n">
-        <v>7.664885515895293</v>
+        <v>7.66488551589529</v>
       </c>
       <c r="I26" t="n">
-        <v>28.85394838047636</v>
+        <v>28.85394838047634</v>
       </c>
       <c r="J26" t="n">
-        <v>63.52228263685767</v>
+        <v>63.52228263685763</v>
       </c>
       <c r="K26" t="n">
-        <v>95.20343521958418</v>
+        <v>95.20343521958414</v>
       </c>
       <c r="L26" t="n">
-        <v>118.1082798534991</v>
+        <v>118.108279853499</v>
       </c>
       <c r="M26" t="n">
-        <v>131.4182183662102</v>
+        <v>131.4182183662101</v>
       </c>
       <c r="N26" t="n">
         <v>133.5447025328927</v>
       </c>
       <c r="O26" t="n">
-        <v>126.1024757198881</v>
+        <v>126.102475719888</v>
       </c>
       <c r="P26" t="n">
-        <v>107.6255455430381</v>
+        <v>107.625545543038</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.82230252699995</v>
+        <v>80.82230252699991</v>
       </c>
       <c r="R26" t="n">
-        <v>47.01373023682246</v>
+        <v>47.01373023682244</v>
       </c>
       <c r="S26" t="n">
-        <v>17.0549082088089</v>
+        <v>17.05490820880889</v>
       </c>
       <c r="T26" t="n">
-        <v>3.276263771105251</v>
+        <v>3.27626377110525</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05987460918067845</v>
+        <v>0.05987460918067842</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.400446752321012</v>
+        <v>0.4004467523210118</v>
       </c>
       <c r="H27" t="n">
-        <v>3.867472581626616</v>
+        <v>3.867472581626615</v>
       </c>
       <c r="I27" t="n">
-        <v>13.78731142859625</v>
+        <v>13.78731142859624</v>
       </c>
       <c r="J27" t="n">
-        <v>37.83343636731105</v>
+        <v>37.83343636731104</v>
       </c>
       <c r="K27" t="n">
-        <v>64.66336877281886</v>
+        <v>64.66336877281883</v>
       </c>
       <c r="L27" t="n">
-        <v>86.9478792704022</v>
+        <v>86.94787927040215</v>
       </c>
       <c r="M27" t="n">
-        <v>101.4640740420389</v>
+        <v>101.4640740420388</v>
       </c>
       <c r="N27" t="n">
         <v>104.1495261661565</v>
       </c>
       <c r="O27" t="n">
-        <v>95.27646918051727</v>
+        <v>95.27646918051722</v>
       </c>
       <c r="P27" t="n">
-        <v>76.46776623926412</v>
+        <v>76.46776623926409</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.1166766646962</v>
+        <v>51.11667666469618</v>
       </c>
       <c r="R27" t="n">
-        <v>24.86282555200109</v>
+        <v>24.86282555200108</v>
       </c>
       <c r="S27" t="n">
-        <v>7.438122789822301</v>
+        <v>7.438122789822297</v>
       </c>
       <c r="T27" t="n">
         <v>1.614081427118464</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0263451810737508</v>
+        <v>0.02634518107375079</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3357211052676876</v>
+        <v>0.3357211052676874</v>
       </c>
       <c r="H28" t="n">
-        <v>2.984865826834534</v>
+        <v>2.984865826834532</v>
       </c>
       <c r="I28" t="n">
-        <v>10.09604923841374</v>
+        <v>10.09604923841373</v>
       </c>
       <c r="J28" t="n">
-        <v>23.73548214242551</v>
+        <v>23.7354821424255</v>
       </c>
       <c r="K28" t="n">
-        <v>39.00468841200951</v>
+        <v>39.00468841200949</v>
       </c>
       <c r="L28" t="n">
-        <v>49.91257232316149</v>
+        <v>49.91257232316147</v>
       </c>
       <c r="M28" t="n">
-        <v>52.62580925573397</v>
+        <v>52.62580925573394</v>
       </c>
       <c r="N28" t="n">
-        <v>51.3744851360999</v>
+        <v>51.37448513609988</v>
       </c>
       <c r="O28" t="n">
-        <v>47.45265222456371</v>
+        <v>47.45265222456369</v>
       </c>
       <c r="P28" t="n">
-        <v>40.60394167710285</v>
+        <v>40.60394167710284</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.11206455109701</v>
+        <v>28.11206455109699</v>
       </c>
       <c r="R28" t="n">
-        <v>15.09524169685439</v>
+        <v>15.09524169685438</v>
       </c>
       <c r="S28" t="n">
-        <v>5.850703261801426</v>
+        <v>5.850703261801423</v>
       </c>
       <c r="T28" t="n">
         <v>1.434444722507392</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01831206028732844</v>
+        <v>0.01831206028732843</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>300.0030794339622</v>
       </c>
       <c r="M11" t="n">
-        <v>310.5369598691553</v>
+        <v>142.9974099932877</v>
       </c>
       <c r="N11" t="n">
         <v>310.5369598691553</v>
       </c>
       <c r="O11" t="n">
-        <v>109.2648956850787</v>
+        <v>276.8044455609466</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>37.08684504105319</v>
+        <v>37.08684504105318</v>
       </c>
       <c r="K12" t="n">
         <v>191.2871668110384</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>310.5369598691553</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>308.5216021024781</v>
+        <v>119.1968325478467</v>
       </c>
       <c r="O12" t="n">
         <v>310.5369598691553</v>
@@ -35507,7 +35507,7 @@
         <v>260.956127464871</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.2121903145238</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.05132068760994</v>
+        <v>51.05132068760992</v>
       </c>
       <c r="K13" t="n">
         <v>137.4102152479838</v>
@@ -35574,7 +35574,7 @@
         <v>198.1776162453348</v>
       </c>
       <c r="M13" t="n">
-        <v>212.8847048794318</v>
+        <v>212.8847048794317</v>
       </c>
       <c r="N13" t="n">
         <v>216.1816761771857</v>
@@ -35586,7 +35586,7 @@
         <v>158.5575196038535</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.62503996125982</v>
+        <v>62.6250399612598</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.57299328224511</v>
       </c>
       <c r="K14" t="n">
         <v>199.2589967457683</v>
@@ -35653,13 +35653,13 @@
         <v>300.0030794339622</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>310.5369598691553</v>
       </c>
       <c r="N14" t="n">
-        <v>255.3431119031916</v>
+        <v>170.0376043127381</v>
       </c>
       <c r="O14" t="n">
-        <v>276.8044455609466</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>198.1912579592511</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.08684504105319</v>
+        <v>37.08684504105318</v>
       </c>
       <c r="K15" t="n">
-        <v>191.2871668110384</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>310.4839993588852</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>310.5369598691553</v>
-      </c>
-      <c r="M15" t="n">
-        <v>119.1968325478466</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>310.5369598691553</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.05132068760994</v>
+        <v>51.05132068760992</v>
       </c>
       <c r="K16" t="n">
         <v>137.4102152479838</v>
@@ -35811,10 +35811,10 @@
         <v>198.1776162453348</v>
       </c>
       <c r="M16" t="n">
-        <v>212.8847048794318</v>
+        <v>212.8847048794317</v>
       </c>
       <c r="N16" t="n">
-        <v>216.1816761771855</v>
+        <v>216.1816761771857</v>
       </c>
       <c r="O16" t="n">
         <v>192.7127988004606</v>
@@ -35823,7 +35823,7 @@
         <v>158.5575196038535</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.62503996125982</v>
+        <v>62.62503996126036</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.57299328224513</v>
+        <v>51.57299328224511</v>
       </c>
       <c r="K17" t="n">
         <v>199.2589967457683</v>
@@ -35902,7 +35902,7 @@
         <v>198.1912579592511</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.83160331245527</v>
+        <v>70.83160331245504</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>37.08684504105319</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>191.2871668110384</v>
@@ -35972,13 +35972,13 @@
         <v>425.0351038700204</v>
       </c>
       <c r="N18" t="n">
-        <v>87.37263596638793</v>
+        <v>451.7446922683514</v>
       </c>
       <c r="O18" t="n">
-        <v>346.5425440128023</v>
+        <v>280.2134602167631</v>
       </c>
       <c r="P18" t="n">
-        <v>260.956127464871</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>121.2121903145238</v>
@@ -36033,19 +36033,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.40818334500035</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>99.36035977350845</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>16.73519658612665</v>
+        <v>16.73519658612664</v>
       </c>
       <c r="L19" t="n">
-        <v>77.50259758347761</v>
+        <v>192.271140701986</v>
       </c>
       <c r="M19" t="n">
         <v>92.20968621757453</v>
@@ -36054,7 +36054,7 @@
         <v>95.50665751532847</v>
       </c>
       <c r="O19" t="n">
-        <v>72.03778013860338</v>
+        <v>72.03778013860337</v>
       </c>
       <c r="P19" t="n">
         <v>37.88250094199633</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.57299328224513</v>
+        <v>51.57299328224511</v>
       </c>
       <c r="K20" t="n">
         <v>199.2589967457683</v>
@@ -36139,7 +36139,7 @@
         <v>198.1912579592511</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.83160331245512</v>
+        <v>70.8316033124551</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>37.08684504105319</v>
+        <v>37.08684504105318</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>191.2871668110384</v>
       </c>
       <c r="L21" t="n">
         <v>319.2338447939871</v>
       </c>
       <c r="M21" t="n">
-        <v>251.9502143790954</v>
+        <v>425.0351038700204</v>
       </c>
       <c r="N21" t="n">
-        <v>451.7446922683515</v>
+        <v>451.7446922683514</v>
       </c>
       <c r="O21" t="n">
         <v>346.5425440128023</v>
       </c>
       <c r="P21" t="n">
-        <v>260.956127464871</v>
+        <v>17.79626147743127</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.2121903145238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>28.21652737903622</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>105.0267920513582</v>
       </c>
       <c r="K22" t="n">
-        <v>16.73519658612665</v>
+        <v>16.73519658612664</v>
       </c>
       <c r="L22" t="n">
         <v>77.50259758347761</v>
@@ -36291,13 +36291,13 @@
         <v>95.50665751532847</v>
       </c>
       <c r="O22" t="n">
-        <v>72.03778013860338</v>
+        <v>72.03778013860337</v>
       </c>
       <c r="P22" t="n">
         <v>37.88250094199633</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.55201573947257</v>
+        <v>9.741751067150229</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.57299328224515</v>
+        <v>51.57299328224511</v>
       </c>
       <c r="K23" t="n">
-        <v>199.2589967457684</v>
+        <v>199.2589967457683</v>
       </c>
       <c r="L23" t="n">
-        <v>300.0030794339623</v>
+        <v>300.0030794339622</v>
       </c>
       <c r="M23" t="n">
         <v>350.5855186317699</v>
@@ -36370,16 +36370,16 @@
         <v>516.1290533738913</v>
       </c>
       <c r="O23" t="n">
-        <v>276.8044455609467</v>
+        <v>395.1364056740523</v>
       </c>
       <c r="P23" t="n">
-        <v>372.8417479848566</v>
+        <v>198.1912579592511</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.83160331245514</v>
+        <v>70.8316033124551</v>
       </c>
       <c r="R23" t="n">
-        <v>15.47657240877805</v>
+        <v>71.79510232127821</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>37.08684504105319</v>
+        <v>37.08684504105318</v>
       </c>
       <c r="K24" t="n">
         <v>191.2871668110384</v>
       </c>
       <c r="L24" t="n">
-        <v>319.2338447939872</v>
+        <v>319.2338447939871</v>
       </c>
       <c r="M24" t="n">
-        <v>425.0351038700205</v>
+        <v>425.0351038700204</v>
       </c>
       <c r="N24" t="n">
-        <v>452.1501884263768</v>
+        <v>452.1501884263767</v>
       </c>
       <c r="O24" t="n">
-        <v>346.5425440128024</v>
+        <v>346.5425440128023</v>
       </c>
       <c r="P24" t="n">
         <v>260.956127464871</v>
@@ -36492,49 +36492,49 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7.403668926977616</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>28.21652737903628</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>29.2294420026742</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.995231772414378</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>15.40818334500041</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.51548969240551</v>
       </c>
       <c r="K25" t="n">
-        <v>16.73519658612666</v>
+        <v>16.73519658612664</v>
       </c>
       <c r="L25" t="n">
-        <v>77.50259758347764</v>
+        <v>77.50259758347761</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20968621757456</v>
+        <v>92.20968621757453</v>
       </c>
       <c r="N25" t="n">
-        <v>95.5066575153285</v>
+        <v>95.50665751532847</v>
       </c>
       <c r="O25" t="n">
-        <v>72.03778013860338</v>
+        <v>72.03778013860337</v>
       </c>
       <c r="P25" t="n">
-        <v>37.88250094199634</v>
+        <v>37.88250094199633</v>
       </c>
       <c r="Q25" t="n">
-        <v>114.7685431185086</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.57299328224515</v>
+        <v>51.57299328224511</v>
       </c>
       <c r="K26" t="n">
-        <v>199.2589967457684</v>
+        <v>199.2589967457683</v>
       </c>
       <c r="L26" t="n">
-        <v>300.0030794339623</v>
+        <v>300.0030794339622</v>
       </c>
       <c r="M26" t="n">
-        <v>350.5855186317699</v>
+        <v>471.2605372936271</v>
       </c>
       <c r="N26" t="n">
-        <v>341.478563348286</v>
+        <v>341.4785633482859</v>
       </c>
       <c r="O26" t="n">
         <v>397.4794642228039</v>
       </c>
       <c r="P26" t="n">
-        <v>318.8662766211084</v>
+        <v>318.8662766211083</v>
       </c>
       <c r="Q26" t="n">
-        <v>191.5066219743123</v>
+        <v>70.8316033124551</v>
       </c>
       <c r="R26" t="n">
-        <v>2.75249647441691</v>
+        <v>2.75249647441737</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>37.08684504105319</v>
+        <v>37.08684504105318</v>
       </c>
       <c r="K27" t="n">
         <v>191.2871668110384</v>
       </c>
       <c r="L27" t="n">
-        <v>319.2338447939872</v>
+        <v>319.2338447939871</v>
       </c>
       <c r="M27" t="n">
-        <v>425.0351038700205</v>
+        <v>425.0351038700204</v>
       </c>
       <c r="N27" t="n">
-        <v>452.1501884263768</v>
+        <v>452.1501884263767</v>
       </c>
       <c r="O27" t="n">
-        <v>346.5425440128024</v>
+        <v>346.5425440128023</v>
       </c>
       <c r="P27" t="n">
         <v>260.956127464871</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.05132068760994</v>
+        <v>51.05132068760996</v>
       </c>
       <c r="K28" t="n">
         <v>137.4102152479839</v>
@@ -36771,7 +36771,7 @@
         <v>158.5575196038536</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.62503996125983</v>
+        <v>62.62503996125984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.57299328224515</v>
+        <v>199.0485853895387</v>
       </c>
       <c r="K29" t="n">
-        <v>346.7345888530618</v>
+        <v>346.7345888530619</v>
       </c>
       <c r="L29" t="n">
-        <v>447.4786715412557</v>
+        <v>300.0030794339623</v>
       </c>
       <c r="M29" t="n">
-        <v>420.4118868771715</v>
+        <v>350.5855186317699</v>
       </c>
       <c r="N29" t="n">
         <v>341.478563348286</v>
@@ -36847,7 +36847,7 @@
         <v>276.8044455609467</v>
       </c>
       <c r="P29" t="n">
-        <v>198.1912579592512</v>
+        <v>268.0176262046526</v>
       </c>
       <c r="Q29" t="n">
         <v>70.83160331245514</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.041629460724351</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.054544084362277</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.121166418448974</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>15.93986981384385</v>
       </c>
       <c r="K31" t="n">
         <v>16.73519658612666</v>
       </c>
       <c r="L31" t="n">
-        <v>224.9781896907711</v>
+        <v>77.50259758347764</v>
       </c>
       <c r="M31" t="n">
         <v>92.20968621757456</v>
       </c>
       <c r="N31" t="n">
-        <v>242.982249622622</v>
+        <v>95.5066575153285</v>
       </c>
       <c r="O31" t="n">
-        <v>72.03778013860338</v>
+        <v>219.5133722458969</v>
       </c>
       <c r="P31" t="n">
-        <v>59.03971071937666</v>
+        <v>185.3580930492899</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.42561340669609</v>
+        <v>89.42561340669614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.752624770036693</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>238.9475592422114</v>
+        <v>51.57299328224515</v>
       </c>
       <c r="K32" t="n">
         <v>199.2589967457684</v>
@@ -37081,13 +37081,13 @@
         <v>341.478563348286</v>
       </c>
       <c r="O32" t="n">
-        <v>276.8044455609467</v>
+        <v>369.6882538053312</v>
       </c>
       <c r="P32" t="n">
         <v>198.1912579592512</v>
       </c>
       <c r="Q32" t="n">
-        <v>157.9627867868029</v>
+        <v>258.2061692724214</v>
       </c>
       <c r="R32" t="n">
         <v>84.51917825563902</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>18.60486421139935</v>
       </c>
       <c r="K34" t="n">
         <v>16.73519658612666</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.60486421139935</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>425.0351038700205</v>
       </c>
       <c r="N36" t="n">
-        <v>87.37263596638908</v>
+        <v>451.7446922683517</v>
       </c>
       <c r="O36" t="n">
-        <v>346.5425440128024</v>
+        <v>103.3826780253636</v>
       </c>
       <c r="P36" t="n">
         <v>260.956127464871</v>
       </c>
       <c r="Q36" t="n">
-        <v>121.2121903145238</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>18.60486421139942</v>
       </c>
       <c r="J37" t="n">
-        <v>18.60486421139942</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>16.73519658612666</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.08684504105319</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>191.2871668110384</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>319.2338447939872</v>
@@ -37631,13 +37631,13 @@
         <v>425.0351038700205</v>
       </c>
       <c r="N39" t="n">
-        <v>451.7446922683517</v>
+        <v>436.9588381330046</v>
       </c>
       <c r="O39" t="n">
         <v>346.5425440128024</v>
       </c>
       <c r="P39" t="n">
-        <v>17.79626147743219</v>
+        <v>260.956127464871</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>18.60486421139942</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.60486421139924</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.57299328224515</v>
       </c>
       <c r="K41" t="n">
         <v>199.2589967457684</v>
       </c>
       <c r="L41" t="n">
-        <v>132.4635295580948</v>
+        <v>300.0030794339623</v>
       </c>
       <c r="M41" t="n">
-        <v>310.5369598691556</v>
+        <v>203.7701186209481</v>
       </c>
       <c r="N41" t="n">
-        <v>310.5369598691556</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>276.8044455609467</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>198.1912579592512</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>191.2871668110384</v>
       </c>
       <c r="L42" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="M42" t="n">
-        <v>258.9407696981945</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="N42" t="n">
-        <v>310.5369598691556</v>
+        <v>258.9407696981947</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.57299328224515</v>
       </c>
       <c r="K44" t="n">
         <v>199.2589967457684</v>
@@ -38023,19 +38023,19 @@
         <v>300.0030794339623</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>297.3972589595351</v>
       </c>
       <c r="N44" t="n">
-        <v>255.3431119031928</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="O44" t="n">
-        <v>276.8044455609467</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>198.1912579592512</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>70.83160331245514</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="M45" t="n">
-        <v>310.5369598691556</v>
+        <v>310.5369598691557</v>
       </c>
       <c r="N45" t="n">
-        <v>139.6909766400772</v>
+        <v>310.4839993588859</v>
       </c>
       <c r="O45" t="n">
-        <v>310.5369598691556</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>260.956127464871</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.2121903145238</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.25074724217369</v>
+        <v>24.25074724217366</v>
       </c>
       <c r="K46" t="n">
         <v>110.6096418025476</v>
@@ -38184,7 +38184,7 @@
         <v>186.0841314339955</v>
       </c>
       <c r="N46" t="n">
-        <v>189.3811027317495</v>
+        <v>189.3811027317494</v>
       </c>
       <c r="O46" t="n">
         <v>165.9122253550243</v>
@@ -38193,7 +38193,7 @@
         <v>131.7569461584173</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.82446651582357</v>
+        <v>35.82446651582354</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
